--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44549.29905220274</v>
+        <v>33195.55831165692</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25295710.35265282</v>
+        <v>25324851.10717477</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19097177.08251054</v>
+        <v>19311016.59678408</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2284246.002101987</v>
+        <v>2214645.350970258</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="D11" t="n">
-        <v>58.59343845177215</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>51.60910058832089</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>51.60910058832092</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>58.59343845177215</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>58.59343845177215</v>
+        <v>58.59343845177214</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>51.60910058832089</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>51.60910058832091</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>58.59343845177215</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="T12" t="n">
-        <v>58.59343845177215</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="Y12" t="n">
-        <v>58.59343845177215</v>
+        <v>58.59343845177214</v>
       </c>
     </row>
     <row r="13">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>58.59343845177215</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>58.59343845177215</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="S13" t="n">
-        <v>58.59343845177215</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="T13" t="n">
-        <v>51.60910058832089</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>51.60910058832091</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.59343845177214</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>58.59343845177214</v>
+        <v>51.60910058832089</v>
       </c>
       <c r="U14" t="n">
         <v>58.59343845177214</v>
       </c>
       <c r="V14" t="n">
-        <v>51.60910058832091</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,22 +1691,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>58.59343845177214</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>58.59343845177214</v>
       </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>58.59343845177214</v>
       </c>
-      <c r="G15" t="n">
-        <v>46.35926282655686</v>
-      </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>5.24983776176404</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>51.60910058832092</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.60910058832089</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="S16" t="n">
-        <v>58.59343845177214</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>58.59343845177214</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>58.59343845177214</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>51.60910058832091</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>66.89487755631825</v>
       </c>
       <c r="U17" t="n">
-        <v>75.94786280235961</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>75.94786280235961</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>75.94786280235961</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>66.89487755631833</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.469579910408716</v>
+        <v>66.89487755631825</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>65.42529764590962</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,16 +1976,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>75.94786280235961</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="V18" t="n">
-        <v>75.94786280235961</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>75.94786280235961</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>75.94786280235961</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>66.89487755631833</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.4856502303879876</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.4092273259303</v>
       </c>
       <c r="S19" t="n">
-        <v>75.94786280235961</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>75.94786280235961</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>75.94786280235962</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>75.94786280235962</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="T20" t="n">
-        <v>66.89487755631833</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="V20" t="n">
-        <v>75.94786280235962</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>66.89487755631825</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.94786280235962</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>66.89487755631832</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>75.94786280235962</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4.090887922119279</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>75.94786280235962</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>62.80398963419898</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.4856502303879762</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="F22" t="n">
-        <v>75.94786280235962</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>75.94786280235962</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>75.94786280235962</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.4092273259303</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>66.89487755631833</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>66.89487755631831</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>66.89487755631825</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>65.42529764590962</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1.469579910408674</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>66.89487755631825</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="W24" t="n">
-        <v>75.94786280235964</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="X24" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.4092273259303</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4856502303880043</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="W25" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>75.94786280235964</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>66.89487755631825</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>66.89487755631831</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>75.94786280235964</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>66.89487755631828</v>
       </c>
       <c r="W26" t="n">
-        <v>75.94786280235964</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>62.80398963419905</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>75.94786280235964</v>
+        <v>66.89487755631826</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>4.090887922119276</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>75.94786280235964</v>
+        <v>66.89487755631826</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="T28" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="V28" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>66.89487755631831</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>75.94786280235957</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>75.94786280235957</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>66.89487755631826</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>51.06139321367294</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>75.94786280235957</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>15.83348434264533</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2885,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>75.94786280235957</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4.090887922119279</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>66.89487755631828</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="X30" t="n">
-        <v>75.94786280235957</v>
+        <v>62.80398963419898</v>
       </c>
       <c r="Y30" t="n">
-        <v>75.94786280235957</v>
+        <v>75.94786280235958</v>
       </c>
     </row>
     <row r="31">
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>66.89487755631825</v>
       </c>
       <c r="E31" t="n">
-        <v>75.94786280235957</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>66.89487755631826</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>75.94786280235957</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="W31" t="n">
-        <v>75.94786280235957</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>66.89487755631826</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>66.89487755631828</v>
       </c>
       <c r="U32" t="n">
         <v>75.94786280235957</v>
       </c>
       <c r="V32" t="n">
-        <v>75.94786280235957</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3110,56 +3110,56 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>66.89487755631826</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>66.89487755631826</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
         <v>75.94786280235957</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
@@ -3167,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
         <v>75.94786280235957</v>
       </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
       <c r="X33" t="n">
-        <v>75.94786280235957</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3189,67 +3189,67 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>75.94786280235957</v>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="T34" t="n">
         <v>75.94786280235957</v>
       </c>
-      <c r="G34" t="n">
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>75.94786280235957</v>
+      </c>
+      <c r="W34" t="n">
         <v>66.89487755631826</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>75.94786280235957</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>66.89487755631825</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>51.06139321367294</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>75.94786280235952</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>15.83348434264533</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>75.94786280235952</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>75.94786280235952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>62.80398963419899</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>66.89487755631825</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>4.090887922119283</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>75.94786280235952</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="V36" t="n">
-        <v>75.94786280235952</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>75.94786280235952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.94786280235952</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>75.94786280235952</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>75.94786280235952</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>66.89487755631825</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.89487755631828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>15.83348434264533</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="I38" t="n">
         <v>51.06139321367294</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>75.94786280235952</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>75.94786280235952</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="U38" t="n">
-        <v>75.94786280235952</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>15.83348434264533</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>75.94786280235952</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1.469579910408618</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I39" t="n">
-        <v>4.090887922119283</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3638,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>62.80398963419899</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="V39" t="n">
-        <v>75.94786280235952</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>75.94786280235952</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.4856502303879199</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.40922732593032</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>75.94786280235952</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>75.94786280235952</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>75.94786280235952</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>66.89487755631826</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15.83348434264533</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>66.89487755631826</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>51.06139321367294</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="Y41" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,16 +3827,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="F42" t="n">
-        <v>1.469579910408674</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>65.42529764590962</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>75.94786280235951</v>
+        <v>66.89487755631828</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>75.94786280235952</v>
       </c>
     </row>
     <row r="43">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>66.89487755631828</v>
+        <v>0.4856502303879357</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.40922732593032</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="X43" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>161.483645379382</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>66.89487755631826</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>31.90177044380177</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="G45" t="n">
-        <v>105.1765168157536</v>
+        <v>62.80398963419899</v>
       </c>
       <c r="H45" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4.090887922119283</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>69.57987822231574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>66.89487755631826</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>193.3854158231839</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>219.5565574740962</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>116.0031710762358</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="C11" t="n">
-        <v>116.0031710762358</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="D11" t="n">
-        <v>56.81787971080934</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="E11" t="n">
         <v>4.687475076141772</v>
@@ -5056,7 +5056,7 @@
         <v>162.7130482674823</v>
       </c>
       <c r="O11" t="n">
-        <v>208.9146559283694</v>
+        <v>208.9146559283693</v>
       </c>
       <c r="P11" t="n">
         <v>234.3737538070886</v>
@@ -5068,25 +5068,25 @@
         <v>234.3737538070886</v>
       </c>
       <c r="S11" t="n">
-        <v>234.3737538070886</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T11" t="n">
-        <v>234.3737538070886</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="U11" t="n">
-        <v>234.3737538070886</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="V11" t="n">
-        <v>234.3737538070886</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="W11" t="n">
-        <v>175.1884624416622</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="X11" t="n">
-        <v>175.1884624416622</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="Y11" t="n">
-        <v>116.0031710762358</v>
+        <v>63.87276644156818</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.687475076141772</v>
+        <v>56.81787971080936</v>
       </c>
       <c r="C12" t="n">
-        <v>4.687475076141772</v>
+        <v>56.81787971080936</v>
       </c>
       <c r="D12" t="n">
         <v>4.687475076141772</v>
@@ -5132,10 +5132,10 @@
         <v>114.7525615466167</v>
       </c>
       <c r="N12" t="n">
-        <v>172.7600656138712</v>
+        <v>172.7600656138711</v>
       </c>
       <c r="O12" t="n">
-        <v>220.1988842265645</v>
+        <v>204.1298114188035</v>
       </c>
       <c r="P12" t="n">
         <v>234.3737538070886</v>
@@ -5150,22 +5150,22 @@
         <v>175.1884624416622</v>
       </c>
       <c r="T12" t="n">
-        <v>116.0031710762358</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U12" t="n">
-        <v>116.0031710762358</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="V12" t="n">
-        <v>116.0031710762358</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="W12" t="n">
-        <v>116.0031710762358</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="X12" t="n">
         <v>116.0031710762358</v>
       </c>
       <c r="Y12" t="n">
-        <v>56.81787971080934</v>
+        <v>56.81787971080936</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63.87276644156819</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="C13" t="n">
-        <v>63.87276644156819</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="D13" t="n">
-        <v>63.87276644156819</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="E13" t="n">
-        <v>63.87276644156819</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="F13" t="n">
-        <v>63.87276644156819</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="G13" t="n">
-        <v>63.87276644156819</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H13" t="n">
-        <v>63.87276644156819</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I13" t="n">
         <v>4.687475076141772</v>
       </c>
       <c r="J13" t="n">
-        <v>44.83138947434913</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K13" t="n">
-        <v>44.83138947434913</v>
+        <v>62.6949791433962</v>
       </c>
       <c r="L13" t="n">
-        <v>45.55297413408002</v>
+        <v>120.7024832106506</v>
       </c>
       <c r="M13" t="n">
-        <v>60.35124160532533</v>
+        <v>178.709987277905</v>
       </c>
       <c r="N13" t="n">
-        <v>118.3587456725798</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="O13" t="n">
-        <v>176.3662497398342</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="P13" t="n">
         <v>234.3737538070886</v>
@@ -5229,22 +5229,22 @@
         <v>116.0031710762358</v>
       </c>
       <c r="T13" t="n">
-        <v>63.87276644156819</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="U13" t="n">
-        <v>63.87276644156819</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="V13" t="n">
-        <v>63.87276644156819</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="W13" t="n">
-        <v>63.87276644156819</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="X13" t="n">
-        <v>63.87276644156819</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="Y13" t="n">
-        <v>63.87276644156819</v>
+        <v>4.687475076141772</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.687475076141771</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="C14" t="n">
-        <v>4.687475076141771</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="D14" t="n">
-        <v>4.687475076141771</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="E14" t="n">
-        <v>4.687475076141771</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="F14" t="n">
-        <v>4.687475076141771</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="G14" t="n">
-        <v>4.687475076141771</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H14" t="n">
-        <v>4.687475076141771</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I14" t="n">
-        <v>4.687475076141771</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J14" t="n">
         <v>4.687475076141772</v>
       </c>
       <c r="K14" t="n">
-        <v>20.97504143141153</v>
+        <v>20.97504143141154</v>
       </c>
       <c r="L14" t="n">
-        <v>56.12642129272578</v>
+        <v>56.12642129272579</v>
       </c>
       <c r="M14" t="n">
         <v>108.0652264990963</v>
@@ -5296,34 +5296,34 @@
         <v>208.9146559283693</v>
       </c>
       <c r="P14" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q14" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R14" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S14" t="n">
-        <v>175.1884624416622</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="T14" t="n">
-        <v>116.0031710762358</v>
+        <v>182.243349172421</v>
       </c>
       <c r="U14" t="n">
-        <v>56.81787971080936</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="V14" t="n">
-        <v>4.687475076141771</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="W14" t="n">
-        <v>4.687475076141771</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="X14" t="n">
-        <v>4.687475076141771</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.687475076141771</v>
+        <v>63.87276644156818</v>
       </c>
     </row>
     <row r="15">
@@ -5333,31 +5333,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>234.3737538070885</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="C15" t="n">
-        <v>234.3737538070885</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="D15" t="n">
-        <v>175.1884624416622</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="E15" t="n">
-        <v>116.0031710762358</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="F15" t="n">
-        <v>56.81787971080936</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="G15" t="n">
-        <v>9.990341502166054</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H15" t="n">
-        <v>9.990341502166054</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I15" t="n">
-        <v>4.687475076141771</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J15" t="n">
-        <v>4.687475076141771</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K15" t="n">
         <v>20.41979942316997</v>
@@ -5369,40 +5369,40 @@
         <v>114.7525615466167</v>
       </c>
       <c r="N15" t="n">
-        <v>172.7600656138711</v>
+        <v>156.6909928061102</v>
       </c>
       <c r="O15" t="n">
-        <v>220.1988842265644</v>
+        <v>204.1298114188035</v>
       </c>
       <c r="P15" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q15" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R15" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S15" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T15" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U15" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="V15" t="n">
-        <v>234.3737538070885</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="W15" t="n">
-        <v>234.3737538070885</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="X15" t="n">
-        <v>234.3737538070885</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="Y15" t="n">
-        <v>234.3737538070885</v>
+        <v>123.0580578069946</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.687475076141771</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="C16" t="n">
-        <v>4.687475076141771</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="D16" t="n">
-        <v>4.687475076141771</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="E16" t="n">
-        <v>4.687475076141771</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="F16" t="n">
-        <v>4.687475076141771</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="G16" t="n">
-        <v>4.687475076141771</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H16" t="n">
-        <v>4.687475076141771</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I16" t="n">
-        <v>4.687475076141771</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J16" t="n">
-        <v>44.83138947434913</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K16" t="n">
-        <v>57.54924247480075</v>
+        <v>62.6949791433962</v>
       </c>
       <c r="L16" t="n">
-        <v>58.27082713453164</v>
+        <v>63.41656380312709</v>
       </c>
       <c r="M16" t="n">
-        <v>60.3512416053253</v>
+        <v>65.49697827392075</v>
       </c>
       <c r="N16" t="n">
+        <v>70.71022313046285</v>
+      </c>
+      <c r="O16" t="n">
         <v>118.3587456725797</v>
       </c>
-      <c r="O16" t="n">
-        <v>176.3662497398341</v>
-      </c>
       <c r="P16" t="n">
-        <v>234.3737538070885</v>
+        <v>176.3662497398342</v>
       </c>
       <c r="Q16" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R16" t="n">
-        <v>182.243349172421</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="S16" t="n">
-        <v>123.0580578069946</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T16" t="n">
-        <v>63.87276644156817</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="U16" t="n">
-        <v>4.687475076141771</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="V16" t="n">
-        <v>4.687475076141771</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="W16" t="n">
-        <v>4.687475076141771</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="X16" t="n">
-        <v>4.687475076141771</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.687475076141771</v>
+        <v>63.87276644156818</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.075829024188769</v>
+        <v>159.5058548875415</v>
       </c>
       <c r="C17" t="n">
-        <v>6.075829024188769</v>
+        <v>159.5058548875415</v>
       </c>
       <c r="D17" t="n">
-        <v>6.075829024188769</v>
+        <v>159.5058548875415</v>
       </c>
       <c r="E17" t="n">
-        <v>6.075829024188769</v>
+        <v>82.79084195586512</v>
       </c>
       <c r="F17" t="n">
-        <v>6.075829024188769</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="G17" t="n">
-        <v>6.075829024188769</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="H17" t="n">
-        <v>6.075829024188769</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="I17" t="n">
-        <v>6.075829024188769</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="J17" t="n">
-        <v>8.518653200747963</v>
+        <v>8.518653200747911</v>
       </c>
       <c r="K17" t="n">
-        <v>32.72891329418883</v>
+        <v>32.72891329418875</v>
       </c>
       <c r="L17" t="n">
-        <v>77.70909531020702</v>
+        <v>77.709095310207</v>
       </c>
       <c r="M17" t="n">
-        <v>140.5843367211125</v>
+        <v>140.5843367211126</v>
       </c>
       <c r="N17" t="n">
         <v>206.3455576655151</v>
@@ -5533,34 +5533,34 @@
         <v>263.0412330294162</v>
       </c>
       <c r="P17" t="n">
-        <v>297.4567749038209</v>
+        <v>297.4567749038208</v>
       </c>
       <c r="Q17" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R17" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="S17" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="T17" t="n">
-        <v>303.7914512094384</v>
+        <v>236.2208678192179</v>
       </c>
       <c r="U17" t="n">
-        <v>227.0764382777621</v>
+        <v>236.2208678192179</v>
       </c>
       <c r="V17" t="n">
-        <v>150.3614253460857</v>
+        <v>236.2208678192179</v>
       </c>
       <c r="W17" t="n">
-        <v>73.64641241440931</v>
+        <v>236.2208678192179</v>
       </c>
       <c r="X17" t="n">
-        <v>6.075829024188769</v>
+        <v>236.2208678192179</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.075829024188769</v>
+        <v>236.2208678192179</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73.64641241440931</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="C18" t="n">
-        <v>73.64641241440931</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="D18" t="n">
-        <v>73.64641241440931</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="E18" t="n">
-        <v>73.64641241440931</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="F18" t="n">
-        <v>72.16198826248132</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="G18" t="n">
-        <v>72.16198826248132</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="H18" t="n">
-        <v>6.075829024188769</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="I18" t="n">
-        <v>6.075829024188769</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="J18" t="n">
-        <v>6.075829024188769</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="K18" t="n">
-        <v>27.18934645194809</v>
+        <v>27.18934645194806</v>
       </c>
       <c r="L18" t="n">
-        <v>74.33970537129234</v>
+        <v>74.3397053712923</v>
       </c>
       <c r="M18" t="n">
-        <v>137.20148190118</v>
+        <v>137.2014819011799</v>
       </c>
       <c r="N18" t="n">
-        <v>207.5625237956375</v>
+        <v>207.5625237956374</v>
       </c>
       <c r="O18" t="n">
-        <v>262.9301139282922</v>
+        <v>262.9301139282921</v>
       </c>
       <c r="P18" t="n">
-        <v>299.5375944741912</v>
+        <v>299.5375944741911</v>
       </c>
       <c r="Q18" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R18" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="S18" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="T18" t="n">
-        <v>227.0764382777621</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="U18" t="n">
-        <v>227.0764382777621</v>
+        <v>227.076438277762</v>
       </c>
       <c r="V18" t="n">
-        <v>150.3614253460857</v>
+        <v>227.076438277762</v>
       </c>
       <c r="W18" t="n">
-        <v>73.64641241440931</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="X18" t="n">
-        <v>73.64641241440931</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="Y18" t="n">
-        <v>73.64641241440931</v>
+        <v>150.3614253460856</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>150.3614253460857</v>
+        <v>6.566384812459461</v>
       </c>
       <c r="C19" t="n">
-        <v>73.64641241440931</v>
+        <v>6.566384812459461</v>
       </c>
       <c r="D19" t="n">
-        <v>6.075829024188769</v>
+        <v>6.566384812459461</v>
       </c>
       <c r="E19" t="n">
-        <v>6.075829024188769</v>
+        <v>6.566384812459461</v>
       </c>
       <c r="F19" t="n">
-        <v>6.075829024188769</v>
+        <v>6.566384812459461</v>
       </c>
       <c r="G19" t="n">
-        <v>6.075829024188769</v>
+        <v>6.566384812459461</v>
       </c>
       <c r="H19" t="n">
-        <v>6.075829024188769</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="I19" t="n">
-        <v>6.075829024188769</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="J19" t="n">
-        <v>6.075829024188769</v>
+        <v>48.19497630457665</v>
       </c>
       <c r="K19" t="n">
-        <v>6.075829024188769</v>
+        <v>48.19497630457665</v>
       </c>
       <c r="L19" t="n">
-        <v>78.22629868643038</v>
+        <v>71.76643962422121</v>
       </c>
       <c r="M19" t="n">
+        <v>78.22629868643041</v>
+      </c>
+      <c r="N19" t="n">
         <v>153.4146828607664</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>228.6030670351024</v>
       </c>
-      <c r="O19" t="n">
-        <v>303.7914512094384</v>
-      </c>
       <c r="P19" t="n">
-        <v>303.7914512094384</v>
+        <v>228.6030670351024</v>
       </c>
       <c r="Q19" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R19" t="n">
-        <v>303.7914512094384</v>
+        <v>236.7114236074885</v>
       </c>
       <c r="S19" t="n">
-        <v>227.0764382777621</v>
+        <v>236.7114236074885</v>
       </c>
       <c r="T19" t="n">
-        <v>150.3614253460857</v>
+        <v>159.9964106758122</v>
       </c>
       <c r="U19" t="n">
-        <v>150.3614253460857</v>
+        <v>83.28139774413582</v>
       </c>
       <c r="V19" t="n">
-        <v>150.3614253460857</v>
+        <v>83.28139774413582</v>
       </c>
       <c r="W19" t="n">
-        <v>150.3614253460857</v>
+        <v>6.566384812459461</v>
       </c>
       <c r="X19" t="n">
-        <v>150.3614253460857</v>
+        <v>6.566384812459461</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3614253460857</v>
+        <v>6.566384812459461</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.79084195586516</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="C20" t="n">
-        <v>82.79084195586516</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="D20" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="E20" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="F20" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="G20" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="H20" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="I20" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="J20" t="n">
-        <v>8.518653200747941</v>
+        <v>8.518653200747906</v>
       </c>
       <c r="K20" t="n">
-        <v>32.72891329418878</v>
+        <v>32.72891329418877</v>
       </c>
       <c r="L20" t="n">
-        <v>77.70909531020706</v>
+        <v>77.70909531020703</v>
       </c>
       <c r="M20" t="n">
         <v>140.5843367211127</v>
       </c>
       <c r="N20" t="n">
-        <v>206.3455576655152</v>
+        <v>206.3455576655151</v>
       </c>
       <c r="O20" t="n">
-        <v>263.0412330294163</v>
+        <v>263.0412330294161</v>
       </c>
       <c r="P20" t="n">
-        <v>297.456774903821</v>
+        <v>297.4567749038208</v>
       </c>
       <c r="Q20" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R20" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="S20" t="n">
-        <v>227.0764382777621</v>
+        <v>227.076438277762</v>
       </c>
       <c r="T20" t="n">
-        <v>159.5058548875415</v>
+        <v>227.076438277762</v>
       </c>
       <c r="U20" t="n">
-        <v>159.5058548875415</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="V20" t="n">
-        <v>82.79084195586516</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="W20" t="n">
-        <v>82.79084195586516</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="X20" t="n">
-        <v>82.79084195586516</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.79084195586516</v>
+        <v>6.075829024188766</v>
       </c>
     </row>
     <row r="21">
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.3614253460857</v>
+        <v>86.92305197820782</v>
       </c>
       <c r="C21" t="n">
-        <v>82.79084195586516</v>
+        <v>86.92305197820782</v>
       </c>
       <c r="D21" t="n">
-        <v>6.07582902418877</v>
+        <v>86.92305197820782</v>
       </c>
       <c r="E21" t="n">
-        <v>6.07582902418877</v>
+        <v>86.92305197820782</v>
       </c>
       <c r="F21" t="n">
-        <v>6.07582902418877</v>
+        <v>86.92305197820782</v>
       </c>
       <c r="G21" t="n">
-        <v>6.07582902418877</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="H21" t="n">
-        <v>6.07582902418877</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="I21" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="J21" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="K21" t="n">
-        <v>27.18934645194804</v>
+        <v>27.18934645194807</v>
       </c>
       <c r="L21" t="n">
         <v>74.33970537129231</v>
@@ -5843,40 +5843,40 @@
         <v>137.2014819011799</v>
       </c>
       <c r="N21" t="n">
-        <v>207.5625237956375</v>
+        <v>207.5625237956374</v>
       </c>
       <c r="O21" t="n">
-        <v>262.9301139282923</v>
+        <v>262.9301139282921</v>
       </c>
       <c r="P21" t="n">
-        <v>299.5375944741912</v>
+        <v>299.5375944741911</v>
       </c>
       <c r="Q21" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R21" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="S21" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="T21" t="n">
-        <v>227.0764382777621</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="U21" t="n">
-        <v>227.0764382777621</v>
+        <v>227.076438277762</v>
       </c>
       <c r="V21" t="n">
-        <v>227.0764382777621</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="W21" t="n">
-        <v>227.0764382777621</v>
+        <v>86.92305197820782</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0764382777621</v>
+        <v>86.92305197820782</v>
       </c>
       <c r="Y21" t="n">
-        <v>227.0764382777621</v>
+        <v>86.92305197820782</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>236.2208678192179</v>
+        <v>159.9964106758122</v>
       </c>
       <c r="C22" t="n">
-        <v>236.2208678192179</v>
+        <v>159.9964106758122</v>
       </c>
       <c r="D22" t="n">
-        <v>236.2208678192179</v>
+        <v>159.5058548875415</v>
       </c>
       <c r="E22" t="n">
-        <v>236.2208678192179</v>
+        <v>82.79084195586512</v>
       </c>
       <c r="F22" t="n">
-        <v>159.5058548875415</v>
+        <v>82.79084195586512</v>
       </c>
       <c r="G22" t="n">
-        <v>82.79084195586516</v>
+        <v>82.79084195586512</v>
       </c>
       <c r="H22" t="n">
-        <v>6.07582902418877</v>
+        <v>82.79084195586512</v>
       </c>
       <c r="I22" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="J22" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="K22" t="n">
-        <v>6.07582902418877</v>
+        <v>81.26421319852474</v>
       </c>
       <c r="L22" t="n">
-        <v>10.95106657773223</v>
+        <v>152.8772665983641</v>
       </c>
       <c r="M22" t="n">
-        <v>78.22629868643043</v>
+        <v>228.0656507727001</v>
       </c>
       <c r="N22" t="n">
-        <v>153.4146828607664</v>
+        <v>303.2540349470361</v>
       </c>
       <c r="O22" t="n">
-        <v>228.6030670351025</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="P22" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="Q22" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R22" t="n">
-        <v>303.7914512094385</v>
+        <v>236.7114236074885</v>
       </c>
       <c r="S22" t="n">
-        <v>303.7914512094385</v>
+        <v>236.7114236074885</v>
       </c>
       <c r="T22" t="n">
-        <v>303.7914512094385</v>
+        <v>236.7114236074885</v>
       </c>
       <c r="U22" t="n">
-        <v>236.2208678192179</v>
+        <v>236.7114236074885</v>
       </c>
       <c r="V22" t="n">
-        <v>236.2208678192179</v>
+        <v>236.7114236074885</v>
       </c>
       <c r="W22" t="n">
-        <v>236.2208678192179</v>
+        <v>236.7114236074885</v>
       </c>
       <c r="X22" t="n">
-        <v>236.2208678192179</v>
+        <v>236.7114236074885</v>
       </c>
       <c r="Y22" t="n">
-        <v>236.2208678192179</v>
+        <v>159.9964106758122</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>150.3614253460857</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="C23" t="n">
-        <v>73.64641241440928</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="D23" t="n">
-        <v>6.075829024188771</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="E23" t="n">
-        <v>6.075829024188771</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="F23" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="G23" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="H23" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="I23" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="J23" t="n">
-        <v>8.518653200747927</v>
+        <v>8.518653200747906</v>
       </c>
       <c r="K23" t="n">
-        <v>32.72891329418878</v>
+        <v>32.72891329418877</v>
       </c>
       <c r="L23" t="n">
-        <v>77.70909531020706</v>
+        <v>77.70909531020703</v>
       </c>
       <c r="M23" t="n">
         <v>140.5843367211127</v>
       </c>
       <c r="N23" t="n">
-        <v>206.3455576655152</v>
+        <v>206.3455576655151</v>
       </c>
       <c r="O23" t="n">
-        <v>263.0412330294163</v>
+        <v>263.0412330294161</v>
       </c>
       <c r="P23" t="n">
-        <v>297.456774903821</v>
+        <v>297.4567749038208</v>
       </c>
       <c r="Q23" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R23" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="S23" t="n">
-        <v>303.7914512094385</v>
+        <v>227.076438277762</v>
       </c>
       <c r="T23" t="n">
-        <v>303.7914512094385</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="U23" t="n">
-        <v>303.7914512094385</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="V23" t="n">
-        <v>303.7914512094385</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="W23" t="n">
-        <v>303.7914512094385</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="X23" t="n">
-        <v>303.7914512094385</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.0764382777621</v>
+        <v>73.64641241440923</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>72.16198826248132</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="C24" t="n">
-        <v>72.16198826248132</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="D24" t="n">
-        <v>72.16198826248132</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="E24" t="n">
-        <v>72.16198826248132</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="F24" t="n">
-        <v>72.16198826248132</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="G24" t="n">
-        <v>72.16198826248132</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="H24" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="I24" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="J24" t="n">
-        <v>6.075829024188927</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="K24" t="n">
-        <v>27.18934645194825</v>
+        <v>27.18934645194806</v>
       </c>
       <c r="L24" t="n">
-        <v>74.33970537129248</v>
+        <v>74.3397053712923</v>
       </c>
       <c r="M24" t="n">
-        <v>137.2014819011801</v>
+        <v>137.2014819011799</v>
       </c>
       <c r="N24" t="n">
-        <v>207.5625237956376</v>
+        <v>207.5625237956374</v>
       </c>
       <c r="O24" t="n">
-        <v>262.9301139282924</v>
+        <v>262.9301139282921</v>
       </c>
       <c r="P24" t="n">
-        <v>299.5375944741913</v>
+        <v>299.5375944741911</v>
       </c>
       <c r="Q24" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R24" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="S24" t="n">
-        <v>302.3070270575106</v>
+        <v>227.076438277762</v>
       </c>
       <c r="T24" t="n">
-        <v>302.3070270575106</v>
+        <v>227.076438277762</v>
       </c>
       <c r="U24" t="n">
-        <v>302.3070270575106</v>
+        <v>159.5058548875415</v>
       </c>
       <c r="V24" t="n">
-        <v>302.3070270575106</v>
+        <v>82.79084195586512</v>
       </c>
       <c r="W24" t="n">
-        <v>225.5920141258342</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="X24" t="n">
-        <v>148.8770011941577</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="Y24" t="n">
-        <v>148.8770011941577</v>
+        <v>6.075829024188766</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.79084195586518</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="C25" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="D25" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="E25" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="F25" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="G25" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="H25" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="I25" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="J25" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="K25" t="n">
-        <v>81.2642131985248</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="L25" t="n">
-        <v>86.13945075206826</v>
+        <v>81.26421319852474</v>
       </c>
       <c r="M25" t="n">
-        <v>152.8772665983643</v>
+        <v>87.72407226073395</v>
       </c>
       <c r="N25" t="n">
-        <v>228.0656507727003</v>
+        <v>153.4146828607664</v>
       </c>
       <c r="O25" t="n">
-        <v>228.6030670351025</v>
+        <v>228.6030670351024</v>
       </c>
       <c r="P25" t="n">
-        <v>228.6030670351025</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="Q25" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R25" t="n">
-        <v>236.7114236074887</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="S25" t="n">
-        <v>236.220867819218</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="T25" t="n">
-        <v>236.220867819218</v>
+        <v>227.076438277762</v>
       </c>
       <c r="U25" t="n">
-        <v>236.220867819218</v>
+        <v>227.076438277762</v>
       </c>
       <c r="V25" t="n">
-        <v>236.220867819218</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="W25" t="n">
-        <v>159.5058548875416</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="X25" t="n">
-        <v>82.79084195586518</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.79084195586518</v>
+        <v>6.075829024188766</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.79084195586518</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="C26" t="n">
-        <v>82.79084195586518</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="D26" t="n">
-        <v>6.075829024188771</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="E26" t="n">
-        <v>6.075829024188771</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="F26" t="n">
-        <v>6.075829024188771</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="G26" t="n">
-        <v>6.075829024188771</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="H26" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="I26" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="J26" t="n">
-        <v>8.518653200747941</v>
+        <v>8.51865320074792</v>
       </c>
       <c r="K26" t="n">
-        <v>32.72891329418879</v>
+        <v>32.72891329418876</v>
       </c>
       <c r="L26" t="n">
-        <v>77.70909531020703</v>
+        <v>77.70909531020686</v>
       </c>
       <c r="M26" t="n">
-        <v>140.5843367211127</v>
+        <v>140.5843367211125</v>
       </c>
       <c r="N26" t="n">
-        <v>206.3455576655152</v>
+        <v>206.3455576655151</v>
       </c>
       <c r="O26" t="n">
-        <v>263.0412330294163</v>
+        <v>263.0412330294161</v>
       </c>
       <c r="P26" t="n">
-        <v>297.456774903821</v>
+        <v>297.4567749038208</v>
       </c>
       <c r="Q26" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R26" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="S26" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="T26" t="n">
-        <v>236.220867819218</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="U26" t="n">
-        <v>159.5058548875416</v>
+        <v>227.0764382777619</v>
       </c>
       <c r="V26" t="n">
-        <v>159.5058548875416</v>
+        <v>159.5058548875414</v>
       </c>
       <c r="W26" t="n">
-        <v>82.79084195586518</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="X26" t="n">
-        <v>82.79084195586518</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.79084195586518</v>
+        <v>82.7908419558651</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>227.0764382777621</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="C27" t="n">
-        <v>227.0764382777621</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="D27" t="n">
-        <v>163.6380649098843</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="E27" t="n">
-        <v>163.6380649098843</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="F27" t="n">
-        <v>86.92305197820788</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="G27" t="n">
-        <v>10.20803904653147</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="H27" t="n">
-        <v>10.20803904653147</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="I27" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="J27" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="K27" t="n">
-        <v>27.18934645194809</v>
+        <v>27.18934645194807</v>
       </c>
       <c r="L27" t="n">
-        <v>74.33970537129233</v>
+        <v>74.3397053712923</v>
       </c>
       <c r="M27" t="n">
         <v>137.2014819011799</v>
@@ -6320,37 +6320,37 @@
         <v>207.5625237956374</v>
       </c>
       <c r="O27" t="n">
-        <v>262.9301139282922</v>
+        <v>262.9301139282921</v>
       </c>
       <c r="P27" t="n">
         <v>299.5375944741911</v>
       </c>
       <c r="Q27" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R27" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="S27" t="n">
-        <v>303.7914512094385</v>
+        <v>227.0764382777619</v>
       </c>
       <c r="T27" t="n">
-        <v>303.7914512094385</v>
+        <v>227.0764382777619</v>
       </c>
       <c r="U27" t="n">
-        <v>303.7914512094385</v>
+        <v>227.0764382777619</v>
       </c>
       <c r="V27" t="n">
-        <v>303.7914512094385</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="W27" t="n">
-        <v>303.7914512094385</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="X27" t="n">
-        <v>303.7914512094385</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="Y27" t="n">
-        <v>303.7914512094385</v>
+        <v>73.64641241440924</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.79084195586518</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="C28" t="n">
-        <v>82.79084195586518</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="D28" t="n">
-        <v>82.79084195586518</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="E28" t="n">
-        <v>82.79084195586518</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="F28" t="n">
-        <v>82.79084195586518</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="G28" t="n">
-        <v>82.79084195586518</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="H28" t="n">
-        <v>82.79084195586518</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="I28" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="J28" t="n">
-        <v>6.075829024188771</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="K28" t="n">
-        <v>66.89120207067781</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="L28" t="n">
-        <v>71.76643962422126</v>
+        <v>81.26421319852473</v>
       </c>
       <c r="M28" t="n">
-        <v>78.22629868643047</v>
+        <v>153.4146828607663</v>
       </c>
       <c r="N28" t="n">
-        <v>153.4146828607665</v>
+        <v>228.6030670351023</v>
       </c>
       <c r="O28" t="n">
-        <v>228.6030670351025</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="P28" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="Q28" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R28" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="S28" t="n">
-        <v>303.7914512094385</v>
+        <v>227.0764382777619</v>
       </c>
       <c r="T28" t="n">
-        <v>227.0764382777621</v>
+        <v>227.0764382777619</v>
       </c>
       <c r="U28" t="n">
-        <v>227.0764382777621</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="V28" t="n">
-        <v>150.3614253460857</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="W28" t="n">
-        <v>82.79084195586518</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="X28" t="n">
-        <v>82.79084195586518</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.79084195586518</v>
+        <v>73.64641241440924</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>227.0764382777619</v>
+        <v>134.368006818161</v>
       </c>
       <c r="C29" t="n">
-        <v>150.3614253460856</v>
+        <v>134.368006818161</v>
       </c>
       <c r="D29" t="n">
-        <v>150.3614253460856</v>
+        <v>134.368006818161</v>
       </c>
       <c r="E29" t="n">
-        <v>73.64641241440924</v>
+        <v>134.368006818161</v>
       </c>
       <c r="F29" t="n">
-        <v>73.64641241440924</v>
+        <v>57.65299388648466</v>
       </c>
       <c r="G29" t="n">
-        <v>73.64641241440924</v>
+        <v>57.65299388648466</v>
       </c>
       <c r="H29" t="n">
-        <v>6.075829024188765</v>
+        <v>57.65299388648466</v>
       </c>
       <c r="I29" t="n">
-        <v>6.075829024188765</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="J29" t="n">
-        <v>8.518653200747934</v>
+        <v>8.518653200747906</v>
       </c>
       <c r="K29" t="n">
         <v>32.72891329418877</v>
       </c>
       <c r="L29" t="n">
-        <v>77.70909531020686</v>
+        <v>77.70909531020703</v>
       </c>
       <c r="M29" t="n">
-        <v>140.5843367211125</v>
+        <v>140.5843367211127</v>
       </c>
       <c r="N29" t="n">
-        <v>206.345557665515</v>
+        <v>206.3455576655151</v>
       </c>
       <c r="O29" t="n">
-        <v>263.041233029416</v>
+        <v>263.0412330294161</v>
       </c>
       <c r="P29" t="n">
-        <v>297.4567749038207</v>
+        <v>297.4567749038208</v>
       </c>
       <c r="Q29" t="n">
         <v>303.7914512094383</v>
@@ -6493,22 +6493,22 @@
         <v>303.7914512094383</v>
       </c>
       <c r="T29" t="n">
-        <v>227.0764382777619</v>
+        <v>227.076438277762</v>
       </c>
       <c r="U29" t="n">
-        <v>227.0764382777619</v>
+        <v>211.0830197498374</v>
       </c>
       <c r="V29" t="n">
-        <v>227.0764382777619</v>
+        <v>211.0830197498374</v>
       </c>
       <c r="W29" t="n">
-        <v>227.0764382777619</v>
+        <v>211.0830197498374</v>
       </c>
       <c r="X29" t="n">
-        <v>227.0764382777619</v>
+        <v>134.368006818161</v>
       </c>
       <c r="Y29" t="n">
-        <v>227.0764382777619</v>
+        <v>134.368006818161</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82.7908419558651</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="C30" t="n">
-        <v>82.7908419558651</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="D30" t="n">
-        <v>82.7908419558651</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="E30" t="n">
-        <v>82.7908419558651</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="F30" t="n">
-        <v>82.7908419558651</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="G30" t="n">
-        <v>6.075829024188765</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="H30" t="n">
-        <v>6.075829024188765</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="I30" t="n">
-        <v>6.075829024188765</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="J30" t="n">
-        <v>6.075829024188765</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="K30" t="n">
-        <v>27.1893464519481</v>
+        <v>27.18934645194807</v>
       </c>
       <c r="L30" t="n">
-        <v>74.33970537129233</v>
+        <v>74.33970537129231</v>
       </c>
       <c r="M30" t="n">
         <v>137.2014819011799</v>
@@ -6557,10 +6557,10 @@
         <v>207.5625237956374</v>
       </c>
       <c r="O30" t="n">
-        <v>262.9301139282923</v>
+        <v>262.9301139282921</v>
       </c>
       <c r="P30" t="n">
-        <v>299.5375944741912</v>
+        <v>299.5375944741911</v>
       </c>
       <c r="Q30" t="n">
         <v>303.7914512094383</v>
@@ -6572,22 +6572,22 @@
         <v>303.7914512094383</v>
       </c>
       <c r="T30" t="n">
-        <v>236.2208678192178</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="U30" t="n">
-        <v>236.2208678192178</v>
+        <v>227.076438277762</v>
       </c>
       <c r="V30" t="n">
-        <v>236.2208678192178</v>
+        <v>227.076438277762</v>
       </c>
       <c r="W30" t="n">
-        <v>236.2208678192178</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="X30" t="n">
-        <v>159.5058548875414</v>
+        <v>86.92305197820782</v>
       </c>
       <c r="Y30" t="n">
-        <v>82.7908419558651</v>
+        <v>10.20803904653147</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>227.0764382777619</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="C31" t="n">
-        <v>227.0764382777619</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="D31" t="n">
-        <v>227.0764382777619</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="E31" t="n">
-        <v>150.3614253460856</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="F31" t="n">
-        <v>150.3614253460856</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="G31" t="n">
-        <v>82.7908419558651</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="H31" t="n">
-        <v>6.075829024188765</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="I31" t="n">
-        <v>6.075829024188765</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="J31" t="n">
-        <v>48.19497630457665</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="K31" t="n">
-        <v>48.19497630457665</v>
+        <v>6.075829024188766</v>
       </c>
       <c r="L31" t="n">
-        <v>53.0702138581201</v>
+        <v>81.26421319852474</v>
       </c>
       <c r="M31" t="n">
-        <v>68.7377426423166</v>
+        <v>87.72407226073395</v>
       </c>
       <c r="N31" t="n">
-        <v>78.22629868643037</v>
+        <v>153.4146828607664</v>
       </c>
       <c r="O31" t="n">
-        <v>153.4146828607663</v>
+        <v>228.6030670351024</v>
       </c>
       <c r="P31" t="n">
-        <v>228.6030670351023</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="Q31" t="n">
         <v>303.7914512094383</v>
@@ -6654,19 +6654,19 @@
         <v>303.7914512094383</v>
       </c>
       <c r="U31" t="n">
-        <v>303.7914512094383</v>
+        <v>227.076438277762</v>
       </c>
       <c r="V31" t="n">
-        <v>303.7914512094383</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="W31" t="n">
-        <v>227.0764382777619</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="X31" t="n">
-        <v>227.0764382777619</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="Y31" t="n">
-        <v>227.0764382777619</v>
+        <v>73.64641241440923</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.075829024188765</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="C32" t="n">
-        <v>6.075829024188765</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="D32" t="n">
-        <v>6.075829024188765</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="E32" t="n">
-        <v>6.075829024188765</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="F32" t="n">
         <v>6.075829024188765</v>
@@ -6700,22 +6700,22 @@
         <v>6.075829024188765</v>
       </c>
       <c r="J32" t="n">
-        <v>8.518653200747849</v>
+        <v>8.518653200747895</v>
       </c>
       <c r="K32" t="n">
-        <v>32.7289132941886</v>
+        <v>32.72891329418883</v>
       </c>
       <c r="L32" t="n">
-        <v>77.70909531020683</v>
+        <v>77.70909531020709</v>
       </c>
       <c r="M32" t="n">
-        <v>140.5843367211124</v>
+        <v>140.5843367211127</v>
       </c>
       <c r="N32" t="n">
-        <v>206.3455576655148</v>
+        <v>206.3455576655151</v>
       </c>
       <c r="O32" t="n">
-        <v>263.0412330294159</v>
+        <v>263.0412330294161</v>
       </c>
       <c r="P32" t="n">
         <v>297.4567749038208</v>
@@ -6730,22 +6730,22 @@
         <v>303.7914512094383</v>
       </c>
       <c r="T32" t="n">
-        <v>303.7914512094383</v>
+        <v>236.2208678192178</v>
       </c>
       <c r="U32" t="n">
-        <v>227.0764382777619</v>
+        <v>159.5058548875414</v>
       </c>
       <c r="V32" t="n">
-        <v>150.3614253460856</v>
+        <v>159.5058548875414</v>
       </c>
       <c r="W32" t="n">
-        <v>150.3614253460856</v>
+        <v>159.5058548875414</v>
       </c>
       <c r="X32" t="n">
-        <v>73.64641241440924</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="Y32" t="n">
-        <v>73.64641241440924</v>
+        <v>82.7908419558651</v>
       </c>
     </row>
     <row r="33">
@@ -6758,16 +6758,16 @@
         <v>150.3614253460856</v>
       </c>
       <c r="C33" t="n">
-        <v>150.3614253460856</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="D33" t="n">
-        <v>150.3614253460856</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="E33" t="n">
         <v>82.7908419558651</v>
       </c>
       <c r="F33" t="n">
-        <v>82.7908419558651</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="G33" t="n">
         <v>6.075829024188765</v>
@@ -6806,19 +6806,19 @@
         <v>303.7914512094383</v>
       </c>
       <c r="S33" t="n">
-        <v>303.7914512094383</v>
+        <v>227.0764382777619</v>
       </c>
       <c r="T33" t="n">
-        <v>303.7914512094383</v>
+        <v>227.0764382777619</v>
       </c>
       <c r="U33" t="n">
-        <v>303.7914512094383</v>
+        <v>227.0764382777619</v>
       </c>
       <c r="V33" t="n">
         <v>227.0764382777619</v>
       </c>
       <c r="W33" t="n">
-        <v>227.0764382777619</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="X33" t="n">
         <v>150.3614253460856</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>303.7914512094383</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="C34" t="n">
-        <v>227.0764382777619</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="D34" t="n">
-        <v>227.0764382777619</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="E34" t="n">
-        <v>227.0764382777619</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="F34" t="n">
-        <v>150.3614253460856</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="G34" t="n">
-        <v>82.7908419558651</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="H34" t="n">
-        <v>82.7908419558651</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="I34" t="n">
         <v>6.075829024188765</v>
@@ -6864,16 +6864,16 @@
         <v>6.075829024188765</v>
       </c>
       <c r="L34" t="n">
-        <v>81.26421319852473</v>
+        <v>78.22629868643037</v>
       </c>
       <c r="M34" t="n">
-        <v>87.72407226073392</v>
+        <v>153.4146828607663</v>
       </c>
       <c r="N34" t="n">
-        <v>162.9124564350699</v>
+        <v>228.6030670351023</v>
       </c>
       <c r="O34" t="n">
-        <v>228.6030670351023</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="P34" t="n">
         <v>303.7914512094383</v>
@@ -6885,25 +6885,25 @@
         <v>303.7914512094383</v>
       </c>
       <c r="S34" t="n">
-        <v>303.7914512094383</v>
+        <v>227.0764382777619</v>
       </c>
       <c r="T34" t="n">
-        <v>303.7914512094383</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="U34" t="n">
-        <v>303.7914512094383</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="V34" t="n">
-        <v>303.7914512094383</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="W34" t="n">
-        <v>303.7914512094383</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="X34" t="n">
-        <v>303.7914512094383</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="Y34" t="n">
-        <v>303.7914512094383</v>
+        <v>6.075829024188765</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>57.65299388648467</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="C35" t="n">
-        <v>57.65299388648467</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="D35" t="n">
-        <v>57.65299388648467</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="E35" t="n">
-        <v>57.65299388648467</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="F35" t="n">
-        <v>57.65299388648467</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="G35" t="n">
-        <v>57.65299388648467</v>
+        <v>6.075829024188763</v>
       </c>
       <c r="H35" t="n">
-        <v>57.65299388648467</v>
+        <v>6.075829024188763</v>
       </c>
       <c r="I35" t="n">
-        <v>6.075829024188762</v>
+        <v>6.075829024188763</v>
       </c>
       <c r="J35" t="n">
-        <v>8.518653200747883</v>
+        <v>8.518653200747913</v>
       </c>
       <c r="K35" t="n">
-        <v>32.72891329418868</v>
+        <v>32.72891329418871</v>
       </c>
       <c r="L35" t="n">
-        <v>77.70909531020692</v>
+        <v>77.70909531020688</v>
       </c>
       <c r="M35" t="n">
         <v>140.5843367211125</v>
@@ -6958,13 +6958,13 @@
         <v>297.4567749038206</v>
       </c>
       <c r="Q35" t="n">
-        <v>303.7914512094381</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="R35" t="n">
-        <v>303.7914512094381</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="S35" t="n">
-        <v>227.0764382777618</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="T35" t="n">
         <v>227.0764382777618</v>
@@ -6976,13 +6976,13 @@
         <v>227.0764382777618</v>
       </c>
       <c r="W35" t="n">
-        <v>211.0830197498372</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="X35" t="n">
-        <v>134.3680068181609</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="Y35" t="n">
-        <v>57.65299388648467</v>
+        <v>227.0764382777618</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10.20803904653147</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="C36" t="n">
-        <v>10.20803904653147</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="D36" t="n">
-        <v>10.20803904653147</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="E36" t="n">
-        <v>10.20803904653147</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="F36" t="n">
-        <v>10.20803904653147</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="G36" t="n">
-        <v>10.20803904653147</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="H36" t="n">
-        <v>10.20803904653147</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="I36" t="n">
-        <v>6.075829024188762</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="J36" t="n">
-        <v>6.075829024188762</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="K36" t="n">
-        <v>27.189346451948</v>
+        <v>27.18934645194805</v>
       </c>
       <c r="L36" t="n">
-        <v>74.33970537129221</v>
+        <v>74.33970537129227</v>
       </c>
       <c r="M36" t="n">
         <v>137.2014819011798</v>
       </c>
       <c r="N36" t="n">
-        <v>207.5625237956372</v>
+        <v>207.5625237956373</v>
       </c>
       <c r="O36" t="n">
         <v>262.930113928292</v>
@@ -7037,16 +7037,16 @@
         <v>299.5375944741909</v>
       </c>
       <c r="Q36" t="n">
-        <v>303.7914512094381</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="R36" t="n">
-        <v>303.7914512094381</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="S36" t="n">
-        <v>303.7914512094381</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="T36" t="n">
-        <v>303.7914512094381</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="U36" t="n">
         <v>227.0764382777618</v>
@@ -7055,13 +7055,13 @@
         <v>150.3614253460855</v>
       </c>
       <c r="W36" t="n">
-        <v>150.3614253460855</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="X36" t="n">
-        <v>150.3614253460855</v>
+        <v>73.64641241440923</v>
       </c>
       <c r="Y36" t="n">
-        <v>73.64641241440924</v>
+        <v>73.64641241440923</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>159.5058548875413</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="C37" t="n">
-        <v>82.79084195586505</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="D37" t="n">
-        <v>82.79084195586505</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="E37" t="n">
-        <v>82.79084195586505</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="F37" t="n">
-        <v>82.79084195586505</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="G37" t="n">
-        <v>6.075829024188762</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="H37" t="n">
-        <v>6.075829024188762</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="I37" t="n">
-        <v>6.075829024188762</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="J37" t="n">
         <v>48.19497630457664</v>
       </c>
       <c r="K37" t="n">
-        <v>48.19497630457664</v>
+        <v>123.3833604789126</v>
       </c>
       <c r="L37" t="n">
-        <v>53.07021385812008</v>
+        <v>198.5717446532485</v>
       </c>
       <c r="M37" t="n">
-        <v>128.258598032456</v>
+        <v>205.0316037154577</v>
       </c>
       <c r="N37" t="n">
-        <v>153.4146828607663</v>
+        <v>280.2199878897936</v>
       </c>
       <c r="O37" t="n">
-        <v>228.6030670351022</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="P37" t="n">
-        <v>228.6030670351022</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="Q37" t="n">
-        <v>303.7914512094381</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="R37" t="n">
-        <v>303.7914512094381</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="S37" t="n">
-        <v>303.7914512094381</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="T37" t="n">
-        <v>303.7914512094381</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="U37" t="n">
-        <v>303.7914512094381</v>
+        <v>159.5058548875414</v>
       </c>
       <c r="V37" t="n">
-        <v>303.7914512094381</v>
+        <v>82.79084195586506</v>
       </c>
       <c r="W37" t="n">
-        <v>303.7914512094381</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="X37" t="n">
-        <v>303.7914512094381</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="Y37" t="n">
-        <v>236.2208678192176</v>
+        <v>6.075829024188764</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>73.64641241440924</v>
+        <v>134.3680068181609</v>
       </c>
       <c r="C38" t="n">
-        <v>73.64641241440924</v>
+        <v>134.3680068181609</v>
       </c>
       <c r="D38" t="n">
-        <v>73.64641241440924</v>
+        <v>134.3680068181609</v>
       </c>
       <c r="E38" t="n">
-        <v>73.64641241440924</v>
+        <v>134.3680068181609</v>
       </c>
       <c r="F38" t="n">
-        <v>57.65299388648467</v>
+        <v>134.3680068181609</v>
       </c>
       <c r="G38" t="n">
-        <v>57.65299388648467</v>
+        <v>134.3680068181609</v>
       </c>
       <c r="H38" t="n">
         <v>57.65299388648467</v>
       </c>
       <c r="I38" t="n">
-        <v>6.075829024188762</v>
+        <v>6.075829024188763</v>
       </c>
       <c r="J38" t="n">
-        <v>8.518653200747906</v>
+        <v>8.518653200747913</v>
       </c>
       <c r="K38" t="n">
-        <v>32.7289132941887</v>
+        <v>32.72891329418871</v>
       </c>
       <c r="L38" t="n">
-        <v>77.70909531020682</v>
+        <v>77.70909531020688</v>
       </c>
       <c r="M38" t="n">
-        <v>140.5843367211124</v>
+        <v>140.5843367211125</v>
       </c>
       <c r="N38" t="n">
         <v>206.3455576655149</v>
       </c>
       <c r="O38" t="n">
-        <v>263.0412330294159</v>
+        <v>263.041233029416</v>
       </c>
       <c r="P38" t="n">
         <v>297.4567749038206</v>
       </c>
       <c r="Q38" t="n">
-        <v>303.7914512094381</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="R38" t="n">
-        <v>303.7914512094381</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="S38" t="n">
+        <v>303.7914512094382</v>
+      </c>
+      <c r="T38" t="n">
         <v>227.0764382777618</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
         <v>150.3614253460855</v>
       </c>
-      <c r="U38" t="n">
-        <v>73.64641241440924</v>
-      </c>
       <c r="V38" t="n">
-        <v>73.64641241440924</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="W38" t="n">
-        <v>73.64641241440924</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="X38" t="n">
-        <v>73.64641241440924</v>
+        <v>134.3680068181609</v>
       </c>
       <c r="Y38" t="n">
-        <v>73.64641241440924</v>
+        <v>134.3680068181609</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>10.20803904653147</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="C39" t="n">
-        <v>10.20803904653147</v>
+        <v>225.5920141258339</v>
       </c>
       <c r="D39" t="n">
-        <v>10.20803904653147</v>
+        <v>225.5920141258339</v>
       </c>
       <c r="E39" t="n">
-        <v>10.20803904653147</v>
+        <v>148.8770011941576</v>
       </c>
       <c r="F39" t="n">
-        <v>10.20803904653147</v>
+        <v>148.8770011941576</v>
       </c>
       <c r="G39" t="n">
-        <v>10.20803904653147</v>
+        <v>72.16198826248132</v>
       </c>
       <c r="H39" t="n">
-        <v>10.20803904653147</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="I39" t="n">
-        <v>6.075829024188762</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="J39" t="n">
-        <v>6.075829024188762</v>
+        <v>6.075829024188771</v>
       </c>
       <c r="K39" t="n">
-        <v>27.18934645194805</v>
+        <v>27.18934645194806</v>
       </c>
       <c r="L39" t="n">
         <v>74.33970537129227</v>
@@ -7277,28 +7277,28 @@
         <v>303.7914512094382</v>
       </c>
       <c r="R39" t="n">
-        <v>303.7914512094381</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="S39" t="n">
-        <v>303.7914512094381</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="T39" t="n">
-        <v>303.7914512094381</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="U39" t="n">
-        <v>240.3530778415603</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="V39" t="n">
-        <v>163.638064909884</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="W39" t="n">
-        <v>86.92305197820775</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="X39" t="n">
-        <v>86.92305197820775</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="Y39" t="n">
-        <v>86.92305197820775</v>
+        <v>227.0764382777618</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.075829024188762</v>
+        <v>236.7114236074883</v>
       </c>
       <c r="C40" t="n">
-        <v>6.075829024188762</v>
+        <v>236.7114236074883</v>
       </c>
       <c r="D40" t="n">
-        <v>6.075829024188762</v>
+        <v>236.7114236074883</v>
       </c>
       <c r="E40" t="n">
-        <v>6.075829024188762</v>
+        <v>159.996410675812</v>
       </c>
       <c r="F40" t="n">
-        <v>6.075829024188762</v>
+        <v>159.5058548875414</v>
       </c>
       <c r="G40" t="n">
-        <v>6.075829024188762</v>
+        <v>82.79084195586506</v>
       </c>
       <c r="H40" t="n">
-        <v>6.075829024188762</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="I40" t="n">
-        <v>6.075829024188762</v>
+        <v>6.075829024188764</v>
       </c>
       <c r="J40" t="n">
         <v>48.19497630457664</v>
       </c>
       <c r="K40" t="n">
-        <v>123.3833604789126</v>
+        <v>61.74046731770517</v>
       </c>
       <c r="L40" t="n">
+        <v>136.9288514920411</v>
+      </c>
+      <c r="M40" t="n">
         <v>143.3887105542503</v>
       </c>
-      <c r="M40" t="n">
-        <v>218.5770947285862</v>
-      </c>
       <c r="N40" t="n">
-        <v>228.0656507726999</v>
+        <v>152.877266598364</v>
       </c>
       <c r="O40" t="n">
+        <v>153.4146828607663</v>
+      </c>
+      <c r="P40" t="n">
         <v>228.6030670351022</v>
       </c>
-      <c r="P40" t="n">
-        <v>303.7914512094381</v>
-      </c>
       <c r="Q40" t="n">
-        <v>303.7914512094381</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="R40" t="n">
-        <v>303.7914512094381</v>
+        <v>236.7114236074883</v>
       </c>
       <c r="S40" t="n">
-        <v>303.7914512094381</v>
+        <v>236.7114236074883</v>
       </c>
       <c r="T40" t="n">
-        <v>227.0764382777618</v>
+        <v>236.7114236074883</v>
       </c>
       <c r="U40" t="n">
-        <v>150.3614253460855</v>
+        <v>236.7114236074883</v>
       </c>
       <c r="V40" t="n">
-        <v>73.64641241440924</v>
+        <v>236.7114236074883</v>
       </c>
       <c r="W40" t="n">
-        <v>6.075829024188762</v>
+        <v>236.7114236074883</v>
       </c>
       <c r="X40" t="n">
-        <v>6.075829024188762</v>
+        <v>236.7114236074883</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.075829024188762</v>
+        <v>236.7114236074883</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>134.3680068181609</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="C41" t="n">
-        <v>57.65299388648467</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="D41" t="n">
-        <v>57.65299388648467</v>
+        <v>82.79084195586505</v>
       </c>
       <c r="E41" t="n">
-        <v>57.65299388648467</v>
+        <v>82.79084195586505</v>
       </c>
       <c r="F41" t="n">
-        <v>57.65299388648467</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="G41" t="n">
-        <v>57.65299388648467</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="H41" t="n">
-        <v>57.65299388648467</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="I41" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="J41" t="n">
         <v>8.518653200747883</v>
       </c>
       <c r="K41" t="n">
-        <v>32.72891329418863</v>
+        <v>32.72891329418868</v>
       </c>
       <c r="L41" t="n">
-        <v>77.70909531020686</v>
+        <v>77.70909531020692</v>
       </c>
       <c r="M41" t="n">
         <v>140.5843367211125</v>
@@ -7429,31 +7429,31 @@
         <v>263.0412330294159</v>
       </c>
       <c r="P41" t="n">
-        <v>297.4567749038205</v>
+        <v>297.4567749038206</v>
       </c>
       <c r="Q41" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094381</v>
       </c>
       <c r="R41" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094381</v>
       </c>
       <c r="S41" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094381</v>
       </c>
       <c r="T41" t="n">
-        <v>303.791451209438</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="U41" t="n">
-        <v>303.791451209438</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="V41" t="n">
-        <v>303.791451209438</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="W41" t="n">
         <v>227.0764382777618</v>
       </c>
       <c r="X41" t="n">
-        <v>227.0764382777618</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="Y41" t="n">
         <v>150.3614253460855</v>
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.3614253460855</v>
+        <v>82.79084195586505</v>
       </c>
       <c r="C42" t="n">
-        <v>150.3614253460855</v>
+        <v>82.79084195586505</v>
       </c>
       <c r="D42" t="n">
-        <v>150.3614253460855</v>
+        <v>82.79084195586505</v>
       </c>
       <c r="E42" t="n">
-        <v>150.3614253460855</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="F42" t="n">
-        <v>148.8770011941576</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="G42" t="n">
-        <v>72.16198826248132</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="H42" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="I42" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="J42" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188714</v>
       </c>
       <c r="K42" t="n">
-        <v>27.18934645194805</v>
+        <v>27.189346451948</v>
       </c>
       <c r="L42" t="n">
-        <v>74.33970537129225</v>
+        <v>74.33970537129221</v>
       </c>
       <c r="M42" t="n">
         <v>137.2014819011798</v>
       </c>
       <c r="N42" t="n">
-        <v>207.5625237956373</v>
+        <v>207.5625237956372</v>
       </c>
       <c r="O42" t="n">
         <v>262.930113928292</v>
@@ -7514,28 +7514,28 @@
         <v>303.7914512094381</v>
       </c>
       <c r="R42" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094381</v>
       </c>
       <c r="S42" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094381</v>
       </c>
       <c r="T42" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094381</v>
       </c>
       <c r="U42" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094381</v>
       </c>
       <c r="V42" t="n">
-        <v>227.0764382777618</v>
+        <v>303.7914512094381</v>
       </c>
       <c r="W42" t="n">
-        <v>150.3614253460855</v>
+        <v>236.2208678192176</v>
       </c>
       <c r="X42" t="n">
-        <v>150.3614253460855</v>
+        <v>159.5058548875413</v>
       </c>
       <c r="Y42" t="n">
-        <v>150.3614253460855</v>
+        <v>82.79084195586505</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.3614253460855</v>
+        <v>6.566384812459404</v>
       </c>
       <c r="C43" t="n">
-        <v>150.3614253460855</v>
+        <v>6.566384812459404</v>
       </c>
       <c r="D43" t="n">
-        <v>73.64641241440926</v>
+        <v>6.566384812459404</v>
       </c>
       <c r="E43" t="n">
-        <v>73.64641241440926</v>
+        <v>6.566384812459404</v>
       </c>
       <c r="F43" t="n">
-        <v>73.64641241440926</v>
+        <v>6.566384812459404</v>
       </c>
       <c r="G43" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="H43" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="I43" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="J43" t="n">
-        <v>48.19497630457664</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="K43" t="n">
-        <v>48.19497630457664</v>
+        <v>81.26421319852469</v>
       </c>
       <c r="L43" t="n">
-        <v>68.20032637991432</v>
+        <v>86.13945075206811</v>
       </c>
       <c r="M43" t="n">
-        <v>143.3887105542502</v>
+        <v>161.327834926404</v>
       </c>
       <c r="N43" t="n">
-        <v>152.877266598364</v>
+        <v>170.8163909705178</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4146828607662</v>
+        <v>228.6030670351022</v>
       </c>
       <c r="P43" t="n">
-        <v>228.6030670351021</v>
+        <v>303.7914512094381</v>
       </c>
       <c r="Q43" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094381</v>
       </c>
       <c r="R43" t="n">
-        <v>303.791451209438</v>
+        <v>236.7114236074883</v>
       </c>
       <c r="S43" t="n">
-        <v>303.791451209438</v>
+        <v>236.7114236074883</v>
       </c>
       <c r="T43" t="n">
-        <v>303.791451209438</v>
+        <v>236.7114236074883</v>
       </c>
       <c r="U43" t="n">
-        <v>303.791451209438</v>
+        <v>159.996410675812</v>
       </c>
       <c r="V43" t="n">
-        <v>303.791451209438</v>
+        <v>83.28139774413569</v>
       </c>
       <c r="W43" t="n">
-        <v>303.791451209438</v>
+        <v>6.566384812459404</v>
       </c>
       <c r="X43" t="n">
-        <v>227.0764382777618</v>
+        <v>6.566384812459404</v>
       </c>
       <c r="Y43" t="n">
-        <v>227.0764382777618</v>
+        <v>6.566384812459404</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>212.9033284597296</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="C44" t="n">
-        <v>49.78853514722242</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="D44" t="n">
-        <v>49.78853514722242</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="E44" t="n">
-        <v>49.78853514722242</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="F44" t="n">
-        <v>49.78853514722242</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="G44" t="n">
-        <v>49.78853514722242</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="H44" t="n">
-        <v>49.78853514722242</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="I44" t="n">
-        <v>17.5645245979277</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="J44" t="n">
-        <v>61.76566646422707</v>
+        <v>8.518653200747883</v>
       </c>
       <c r="K44" t="n">
-        <v>148.5608200474252</v>
+        <v>32.72891329418868</v>
       </c>
       <c r="L44" t="n">
-        <v>271.1830965723309</v>
+        <v>77.70909531020692</v>
       </c>
       <c r="M44" t="n">
-        <v>420.4501281543857</v>
+        <v>140.5843367211125</v>
       </c>
       <c r="N44" t="n">
-        <v>574.0010487547426</v>
+        <v>206.3455576655149</v>
       </c>
       <c r="O44" t="n">
-        <v>713.5940480809666</v>
+        <v>263.0412330294159</v>
       </c>
       <c r="P44" t="n">
-        <v>818.7605380598411</v>
+        <v>297.4567749038206</v>
       </c>
       <c r="Q44" t="n">
-        <v>878.2262298963848</v>
+        <v>303.7914512094381</v>
       </c>
       <c r="R44" t="n">
-        <v>878.2262298963849</v>
+        <v>303.7914512094381</v>
       </c>
       <c r="S44" t="n">
-        <v>878.2262298963849</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="T44" t="n">
-        <v>878.2262298963849</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="U44" t="n">
-        <v>878.2262298963849</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="V44" t="n">
-        <v>656.4519294174997</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="W44" t="n">
-        <v>434.6776289386146</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="X44" t="n">
-        <v>212.9033284597296</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="Y44" t="n">
-        <v>212.9033284597296</v>
+        <v>150.3614253460855</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>667.6404919857318</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="C45" t="n">
-        <v>533.6454207346775</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="D45" t="n">
-        <v>416.7482629540699</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="E45" t="n">
-        <v>296.2554469463979</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="F45" t="n">
-        <v>187.2955671289025</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="G45" t="n">
-        <v>81.05666125440383</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="H45" t="n">
-        <v>17.5645245979277</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="I45" t="n">
-        <v>17.5645245979277</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="J45" t="n">
-        <v>36.2691938677774</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="K45" t="n">
-        <v>99.8911568994331</v>
+        <v>27.18934645194805</v>
       </c>
       <c r="L45" t="n">
-        <v>204.1993668012281</v>
+        <v>74.33970537129227</v>
       </c>
       <c r="M45" t="n">
-        <v>333.7616594659744</v>
+        <v>137.2014819011798</v>
       </c>
       <c r="N45" t="n">
-        <v>472.5885816838002</v>
+        <v>207.5625237956373</v>
       </c>
       <c r="O45" t="n">
-        <v>590.5890764168994</v>
+        <v>262.930113928292</v>
       </c>
       <c r="P45" t="n">
-        <v>677.4649847190642</v>
+        <v>299.5375944741909</v>
       </c>
       <c r="Q45" t="n">
-        <v>878.2262298963849</v>
+        <v>303.7914512094382</v>
       </c>
       <c r="R45" t="n">
-        <v>878.2262298963849</v>
+        <v>303.7914512094381</v>
       </c>
       <c r="S45" t="n">
-        <v>878.2262298963849</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="T45" t="n">
-        <v>878.2262298963849</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="U45" t="n">
-        <v>878.2262298963849</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="V45" t="n">
-        <v>878.2262298963849</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="W45" t="n">
-        <v>878.2262298963849</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="X45" t="n">
-        <v>878.2262298963849</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="Y45" t="n">
-        <v>807.9435246213185</v>
+        <v>227.0764382777618</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>17.5645245979277</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="C46" t="n">
-        <v>17.5645245979277</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="D46" t="n">
-        <v>17.5645245979277</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="E46" t="n">
-        <v>17.5645245979277</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="F46" t="n">
-        <v>17.5645245979277</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="G46" t="n">
-        <v>17.5645245979277</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="H46" t="n">
-        <v>17.5645245979277</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="I46" t="n">
-        <v>17.5645245979277</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="J46" t="n">
-        <v>75.28691789969612</v>
+        <v>6.075829024188762</v>
       </c>
       <c r="K46" t="n">
-        <v>174.9793852946635</v>
+        <v>81.26421319852469</v>
       </c>
       <c r="L46" t="n">
-        <v>392.3403771940188</v>
+        <v>143.3887105542503</v>
       </c>
       <c r="M46" t="n">
-        <v>609.7013690933741</v>
+        <v>218.5770947285862</v>
       </c>
       <c r="N46" t="n">
-        <v>827.0623609927294</v>
+        <v>228.0656507726999</v>
       </c>
       <c r="O46" t="n">
-        <v>858.7942313043054</v>
+        <v>228.6030670351022</v>
       </c>
       <c r="P46" t="n">
-        <v>878.2262298963849</v>
+        <v>303.7914512094381</v>
       </c>
       <c r="Q46" t="n">
-        <v>878.2262298963849</v>
+        <v>303.7914512094381</v>
       </c>
       <c r="R46" t="n">
-        <v>878.2262298963849</v>
+        <v>303.7914512094381</v>
       </c>
       <c r="S46" t="n">
-        <v>878.2262298963849</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="T46" t="n">
-        <v>878.2262298963849</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="U46" t="n">
-        <v>682.887426034583</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="V46" t="n">
-        <v>682.887426034583</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="W46" t="n">
-        <v>461.1131255556979</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="X46" t="n">
-        <v>239.3388250768128</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.5645245979277</v>
+        <v>73.64641241440924</v>
       </c>
     </row>
   </sheetData>
@@ -8458,10 +8458,10 @@
         <v>40.5121283012307</v>
       </c>
       <c r="L8" t="n">
-        <v>35.16270217958865</v>
+        <v>35.16270217958864</v>
       </c>
       <c r="M8" t="n">
-        <v>26.16960234776165</v>
+        <v>26.16960234776164</v>
       </c>
       <c r="N8" t="n">
         <v>24.70558680915735</v>
@@ -8470,7 +8470,7 @@
         <v>28.78411920260946</v>
       </c>
       <c r="P8" t="n">
-        <v>38.68062560122958</v>
+        <v>38.68062560122957</v>
       </c>
       <c r="Q8" t="n">
         <v>48.7545716309821</v>
@@ -8540,7 +8540,7 @@
         <v>11.70671018907476</v>
       </c>
       <c r="M9" t="n">
-        <v>5.742459823057359</v>
+        <v>5.742459823057352</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.65794306195595</v>
+        <v>25.10853457891821</v>
       </c>
       <c r="K13" t="n">
-        <v>8.990946914140046</v>
+        <v>67.5843853659122</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>57.86456505810457</v>
       </c>
       <c r="M13" t="n">
-        <v>12.84631616207237</v>
+        <v>56.49200969339471</v>
       </c>
       <c r="N13" t="n">
-        <v>53.32753455627508</v>
+        <v>50.96012290165801</v>
       </c>
       <c r="O13" t="n">
-        <v>62.03942390479023</v>
+        <v>3.445985453018082</v>
       </c>
       <c r="P13" t="n">
-        <v>69.34015341968117</v>
+        <v>10.74671496790903</v>
       </c>
       <c r="Q13" t="n">
         <v>30.18092300089421</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.65794306195595</v>
+        <v>25.10853457891821</v>
       </c>
       <c r="K16" t="n">
-        <v>21.83726307621239</v>
+        <v>67.5843853659122</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9096,16 +9096,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>53.32753455627506</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>62.03942390479022</v>
+        <v>51.57580620263111</v>
       </c>
       <c r="P16" t="n">
         <v>69.34015341968117</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.18092300089421</v>
+        <v>88.77436145266635</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>31.21809620174882</v>
+        <v>31.21809620174884</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>6.228584518226633</v>
+        <v>6.228584518226647</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.33532272952759</v>
+        <v>29.3353227295276</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.11334984944293</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>5.712245507081533</v>
+        <v>5.712245507081541</v>
       </c>
       <c r="L19" t="n">
-        <v>67.95477990777593</v>
+        <v>18.88507653141526</v>
       </c>
       <c r="M19" t="n">
-        <v>69.42275263851192</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>66.36346275780025</v>
+        <v>66.36346275780022</v>
       </c>
       <c r="O19" t="n">
-        <v>75.40501809286238</v>
+        <v>75.40501809286236</v>
       </c>
       <c r="P19" t="n">
-        <v>7.333581672172997</v>
+        <v>7.333581672173004</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.81784642339687</v>
+        <v>103.7657092257565</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>31.21809620174883</v>
+        <v>31.21809620174884</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>6.22858451822664</v>
+        <v>6.228584518226647</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.33532272952759</v>
+        <v>29.3353227295276</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>23.11334984944293</v>
       </c>
       <c r="K22" t="n">
-        <v>5.712245507081541</v>
+        <v>81.66010830944111</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>67.41193519827874</v>
       </c>
       <c r="M22" t="n">
-        <v>61.42966974392829</v>
+        <v>69.42275263851189</v>
       </c>
       <c r="N22" t="n">
-        <v>66.36346275780026</v>
+        <v>66.36346275780022</v>
       </c>
       <c r="O22" t="n">
-        <v>75.40501809286238</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>83.28144447453263</v>
+        <v>7.333581672173004</v>
       </c>
       <c r="Q22" t="n">
-        <v>27.81784642339688</v>
+        <v>27.81784642339689</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>31.21809620174883</v>
+        <v>31.21809620174884</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>6.22858451822664</v>
+        <v>6.228584518226647</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.33532272952759</v>
+        <v>29.3353227295276</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>23.11334984944293</v>
       </c>
       <c r="K25" t="n">
-        <v>81.66010830944117</v>
+        <v>5.712245507081541</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>71.02338042504297</v>
       </c>
       <c r="M25" t="n">
-        <v>60.8868250344311</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>66.36346275780028</v>
+        <v>56.76975207668554</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>75.40501809286236</v>
       </c>
       <c r="P25" t="n">
-        <v>7.333581672172997</v>
+        <v>83.28144447453258</v>
       </c>
       <c r="Q25" t="n">
-        <v>103.7657092257565</v>
+        <v>27.81784642339689</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>31.21809620174883</v>
+        <v>31.21809620174884</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>6.22858451822664</v>
+        <v>6.228584518226647</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.33532272952759</v>
+        <v>29.3353227295276</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>23.11334984944293</v>
       </c>
       <c r="K28" t="n">
-        <v>67.14191525100986</v>
+        <v>5.712245507081541</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>71.02338042504294</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>66.35415212124485</v>
       </c>
       <c r="N28" t="n">
-        <v>66.36346275780028</v>
+        <v>66.36346275780022</v>
       </c>
       <c r="O28" t="n">
-        <v>75.40501809286241</v>
+        <v>75.40501809286233</v>
       </c>
       <c r="P28" t="n">
-        <v>83.28144447453263</v>
+        <v>7.333581672173004</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.81784642339688</v>
+        <v>27.81784642339689</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.65794306195595</v>
+        <v>23.11334984944293</v>
       </c>
       <c r="K31" t="n">
         <v>5.712245507081541</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>71.02338042504297</v>
       </c>
       <c r="M31" t="n">
-        <v>9.300676486855863</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>56.76975207668554</v>
       </c>
       <c r="O31" t="n">
-        <v>75.40501809286235</v>
+        <v>75.40501809286236</v>
       </c>
       <c r="P31" t="n">
         <v>83.28144447453258</v>
       </c>
       <c r="Q31" t="n">
-        <v>103.7657092257565</v>
+        <v>27.81784642339689</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10512,19 +10512,19 @@
         <v>5.712245507081555</v>
       </c>
       <c r="L34" t="n">
-        <v>71.02338042504297</v>
+        <v>67.95477990777593</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>69.42275263851189</v>
       </c>
       <c r="N34" t="n">
         <v>66.36346275780022</v>
       </c>
       <c r="O34" t="n">
-        <v>65.81130741174766</v>
+        <v>75.40501809286235</v>
       </c>
       <c r="P34" t="n">
-        <v>83.28144447453259</v>
+        <v>7.333581672173018</v>
       </c>
       <c r="Q34" t="n">
         <v>27.81784642339689</v>
@@ -10746,25 +10746,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>5.712245507081555</v>
+        <v>81.66010830944109</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>71.02338042504294</v>
       </c>
       <c r="M37" t="n">
-        <v>69.42275263851184</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>15.82578665070356</v>
+        <v>66.36346275780019</v>
       </c>
       <c r="O37" t="n">
-        <v>75.40501809286232</v>
+        <v>23.26671419923463</v>
       </c>
       <c r="P37" t="n">
         <v>7.333581672173018</v>
       </c>
       <c r="Q37" t="n">
-        <v>103.7657092257564</v>
+        <v>27.81784642339689</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,13 +10983,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>81.66010830944106</v>
+        <v>19.39455966175683</v>
       </c>
       <c r="L40" t="n">
-        <v>15.28294194120635</v>
+        <v>71.02338042504294</v>
       </c>
       <c r="M40" t="n">
-        <v>69.42275263851184</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>83.28144447453253</v>
+        <v>83.28144447453256</v>
       </c>
       <c r="Q40" t="n">
-        <v>27.81784642339689</v>
+        <v>103.7657092257564</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>23.11334984944294</v>
       </c>
       <c r="K43" t="n">
-        <v>5.712245507081555</v>
+        <v>81.66010830944109</v>
       </c>
       <c r="L43" t="n">
-        <v>15.2829419412063</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>69.42275263851184</v>
+        <v>69.42275263851187</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>57.82753515371937</v>
       </c>
       <c r="P43" t="n">
         <v>83.28144447453253</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.7657092257564</v>
+        <v>27.81784642339689</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>31.21809620174885</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.70128436951478</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6.228584518226654</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>164.5497734609319</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>12.82588865527179</v>
+        <v>29.3353227295276</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>23.11334984944294</v>
       </c>
       <c r="K46" t="n">
-        <v>80.51178192532315</v>
+        <v>81.66010830944109</v>
       </c>
       <c r="L46" t="n">
-        <v>181.4890873650639</v>
+        <v>57.82753515371935</v>
       </c>
       <c r="M46" t="n">
-        <v>178.0868137369347</v>
+        <v>69.42275263851184</v>
       </c>
       <c r="N46" t="n">
-        <v>175.8584291375</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>83.28144447453253</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.150849970123481</v>
+        <v>27.81784642339689</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,13 +23260,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>347.4299063280904</v>
       </c>
       <c r="D11" t="n">
-        <v>341.8258521560979</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>358.5877127399514</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>115.0129618988752</v>
+        <v>56.41952344710306</v>
       </c>
       <c r="T11" t="n">
-        <v>216.3507719527366</v>
+        <v>164.7416713644157</v>
       </c>
       <c r="U11" t="n">
         <v>254.4234809336984</v>
@@ -23320,7 +23320,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>321.3292594044109</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>87.29090172090986</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>64.11908561448057</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
@@ -23390,7 +23390,7 @@
         <v>40.06717850356156</v>
       </c>
       <c r="T12" t="n">
-        <v>97.36485703899314</v>
+        <v>155.9582954907653</v>
       </c>
       <c r="U12" t="n">
         <v>195.3480837702892</v>
@@ -23402,10 +23402,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>115.969283590724</v>
       </c>
       <c r="Y12" t="n">
-        <v>99.21450158803611</v>
+        <v>99.21450158803613</v>
       </c>
     </row>
     <row r="13">
@@ -23436,7 +23436,7 @@
         <v>144.8009177829157</v>
       </c>
       <c r="I13" t="n">
-        <v>45.39179408123464</v>
+        <v>103.9852325330068</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.084682235606618</v>
+        <v>9.084682235606621</v>
       </c>
       <c r="S13" t="n">
         <v>119.4454985903777</v>
       </c>
       <c r="T13" t="n">
-        <v>183.9532333105409</v>
+        <v>235.5623338988618</v>
       </c>
       <c r="U13" t="n">
         <v>279.9498563912409</v>
@@ -23478,10 +23478,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>224.6698672578934</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>177.3669850671413</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23506,7 +23506,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>358.2266694740771</v>
       </c>
       <c r="G14" t="n">
         <v>403.8109276487636</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>56.41952344710307</v>
+        <v>115.0129618988752</v>
       </c>
       <c r="T14" t="n">
-        <v>157.7573335009645</v>
+        <v>164.7416713644157</v>
       </c>
       <c r="U14" t="n">
-        <v>195.8300424819263</v>
+        <v>195.8300424819262</v>
       </c>
       <c r="V14" t="n">
-        <v>294.7300785285632</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>338.0435254009648</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23579,22 +23579,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>57.13474775102934</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>60.69444939582315</v>
+        <v>60.69444939582314</v>
       </c>
       <c r="F15" t="n">
-        <v>49.27684256754832</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>59.116820192559</v>
+        <v>46.88264456734372</v>
       </c>
       <c r="H15" t="n">
         <v>65.75039414869914</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5.24983776176404</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>98.66061695533371</v>
+        <v>40.06717850356156</v>
       </c>
       <c r="T15" t="n">
         <v>155.9582954907653</v>
@@ -23633,7 +23633,7 @@
         <v>195.3480837702892</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>159.9653111485756</v>
       </c>
       <c r="W15" t="n">
         <v>211.1008365810345</v>
@@ -23658,7 +23658,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>99.30625977854693</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>16.06902009905787</v>
+        <v>9.084682235606621</v>
       </c>
       <c r="S16" t="n">
-        <v>119.4454985903777</v>
+        <v>178.0389370421498</v>
       </c>
       <c r="T16" t="n">
-        <v>176.9688954470897</v>
+        <v>235.5623338988618</v>
       </c>
       <c r="U16" t="n">
         <v>221.3564179394687</v>
@@ -23715,7 +23715,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>224.6698672578934</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>330.171105065485</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -23740,10 +23740,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>334.2489505259127</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>340.8722451234897</v>
       </c>
       <c r="G17" t="n">
         <v>403.7480150306399</v>
@@ -23752,7 +23752,7 @@
         <v>298.6541171146935</v>
       </c>
       <c r="I17" t="n">
-        <v>51.06139321367292</v>
+        <v>51.06139321367294</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>113.5793406133823</v>
       </c>
       <c r="T17" t="n">
-        <v>216.0753719669003</v>
+        <v>149.1804944105821</v>
       </c>
       <c r="U17" t="n">
-        <v>178.4705851218889</v>
+        <v>254.4184479242485</v>
       </c>
       <c r="V17" t="n">
-        <v>270.3913163145245</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>303.9748350538235</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>329.7420862964186</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>62.95213950687118</v>
       </c>
       <c r="C18" t="n">
         <v>132.6551205385437</v>
@@ -23822,16 +23822,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>106.4007011089117</v>
+        <v>40.97540346300221</v>
       </c>
       <c r="G18" t="n">
         <v>105.4424218008434</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I18" t="n">
-        <v>4.090887922119276</v>
+        <v>4.090887922119279</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,13 +23864,13 @@
         <v>98.03537458961453</v>
       </c>
       <c r="T18" t="n">
-        <v>79.87475435686001</v>
+        <v>155.8226171592196</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3458692164555</v>
+        <v>119.3980064140959</v>
       </c>
       <c r="V18" t="n">
-        <v>135.6265489345369</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
         <v>135.1529737786749</v>
@@ -23892,10 +23892,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>93.43457591154105</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>91.00482067400074</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23907,7 +23907,7 @@
         <v>165.1773242806354</v>
       </c>
       <c r="H19" t="n">
-        <v>144.5500124639718</v>
+        <v>144.0643622335838</v>
       </c>
       <c r="I19" t="n">
         <v>103.1365670983785</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.4092273259303</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>101.5992690287314</v>
+        <v>177.547131831091</v>
       </c>
       <c r="T19" t="n">
-        <v>159.4938928757418</v>
+        <v>159.4938928757419</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9483170948056</v>
+        <v>204.0004542924461</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>200.3311050438548</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -23974,7 +23974,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>324.4714278055104</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -23989,7 +23989,7 @@
         <v>298.6541171146935</v>
       </c>
       <c r="I20" t="n">
-        <v>51.06139321367293</v>
+        <v>51.06139321367294</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>37.63147781102266</v>
+        <v>37.63147781102271</v>
       </c>
       <c r="T20" t="n">
-        <v>149.180494410582</v>
+        <v>216.0753719669003</v>
       </c>
       <c r="U20" t="n">
-        <v>254.4184479242485</v>
+        <v>178.4705851218889</v>
       </c>
       <c r="V20" t="n">
         <v>270.3913163145245</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>313.0278202998649</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>62.95213950687113</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>65.76024298222542</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>39.78032340044186</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
         <v>119.2878878475953</v>
@@ -24062,13 +24062,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.4424218008434</v>
+        <v>29.4945589984838</v>
       </c>
       <c r="H21" t="n">
         <v>65.42529764590962</v>
       </c>
       <c r="I21" t="n">
-        <v>4.090887922119276</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,16 +24101,16 @@
         <v>98.03537458961453</v>
       </c>
       <c r="T21" t="n">
-        <v>79.87475435686</v>
+        <v>155.8226171592196</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3458692164555</v>
+        <v>119.3980064140959</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>135.6265489345369</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>148.2968469468355</v>
       </c>
       <c r="X21" t="n">
         <v>174.5627220424961</v>
@@ -24132,22 +24132,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>157.4140479999311</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>83.35384417800414</v>
       </c>
       <c r="F22" t="n">
-        <v>87.03695182815503</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>89.22946147827582</v>
+        <v>165.1773242806354</v>
       </c>
       <c r="H22" t="n">
-        <v>68.60214966161217</v>
+        <v>144.5500124639718</v>
       </c>
       <c r="I22" t="n">
-        <v>103.1365670983785</v>
+        <v>27.18870429601891</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.4092273259303</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>177.547131831091</v>
@@ -24183,7 +24183,7 @@
         <v>235.4417556781015</v>
       </c>
       <c r="U22" t="n">
-        <v>213.0534395384873</v>
+        <v>279.9483170948056</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24195,7 +24195,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>146.5404788227634</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>330.1711050654849</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>330.0754819775029</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>333.5244130515517</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>349.9252303695311</v>
       </c>
       <c r="G23" t="n">
         <v>403.7480150306399</v>
@@ -24226,7 +24226,7 @@
         <v>298.6541171146935</v>
       </c>
       <c r="I23" t="n">
-        <v>51.06139321367293</v>
+        <v>51.06139321367294</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>113.5793406133823</v>
+        <v>37.63147781102271</v>
       </c>
       <c r="T23" t="n">
-        <v>216.0753719669003</v>
+        <v>140.1275091645408</v>
       </c>
       <c r="U23" t="n">
-        <v>254.4184479242485</v>
+        <v>178.4705851218889</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24274,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.9794435190312</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62.95213950687112</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
         <v>132.6551205385437</v>
@@ -24302,10 +24302,10 @@
         <v>105.4424218008434</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I24" t="n">
-        <v>4.090887922119276</v>
+        <v>4.090887922119279</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,22 +24335,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>96.56579467920587</v>
+        <v>22.08751178725495</v>
       </c>
       <c r="T24" t="n">
         <v>155.8226171592196</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3458692164555</v>
+        <v>128.4509916601372</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>135.6265489345369</v>
       </c>
       <c r="W24" t="n">
         <v>135.1529737786749</v>
       </c>
       <c r="X24" t="n">
-        <v>98.61485924013648</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
         <v>157.8079400398083</v>
@@ -24366,7 +24366,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>93.43457591154102</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.4092273259303</v>
       </c>
       <c r="S25" t="n">
-        <v>177.061481600703</v>
+        <v>177.547131831091</v>
       </c>
       <c r="T25" t="n">
-        <v>235.4417556781015</v>
+        <v>159.4938928757419</v>
       </c>
       <c r="U25" t="n">
         <v>279.9483170948056</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>195.1990248075137</v>
       </c>
       <c r="W25" t="n">
-        <v>200.3311050438547</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>160.0125607165538</v>
+        <v>160.0125607165539</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>155.5934640688047</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>324.4714278055104</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -24460,10 +24460,10 @@
         <v>403.7480150306399</v>
       </c>
       <c r="H26" t="n">
-        <v>298.6541171146935</v>
+        <v>222.706254312334</v>
       </c>
       <c r="I26" t="n">
-        <v>51.06139321367293</v>
+        <v>51.06139321367294</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>113.5793406133823</v>
       </c>
       <c r="T26" t="n">
-        <v>149.180494410582</v>
+        <v>216.0753719669003</v>
       </c>
       <c r="U26" t="n">
         <v>178.4705851218889</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>279.4443015605658</v>
       </c>
       <c r="W26" t="n">
         <v>303.9748350538235</v>
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>62.95213950687112</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>52.92419656860243</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>31.92241821696082</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>29.49455899848375</v>
+        <v>38.54754424452511</v>
       </c>
       <c r="H27" t="n">
         <v>65.42529764590962</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4.090887922119279</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>98.03537458961453</v>
+        <v>22.08751178725497</v>
       </c>
       <c r="T27" t="n">
         <v>155.8226171592196</v>
@@ -24581,10 +24581,10 @@
         <v>195.3458692164555</v>
       </c>
       <c r="V27" t="n">
-        <v>211.5744117368965</v>
+        <v>135.6265489345369</v>
       </c>
       <c r="W27" t="n">
-        <v>211.1008365810345</v>
+        <v>135.1529737786749</v>
       </c>
       <c r="X27" t="n">
         <v>174.5627220424961</v>
@@ -24621,7 +24621,7 @@
         <v>144.5500124639718</v>
       </c>
       <c r="I28" t="n">
-        <v>27.18870429601886</v>
+        <v>36.24168954206023</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>66.4092273259303</v>
       </c>
       <c r="S28" t="n">
-        <v>177.547131831091</v>
+        <v>101.5992690287315</v>
       </c>
       <c r="T28" t="n">
-        <v>159.4938928757418</v>
+        <v>235.4417556781015</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9483170948056</v>
+        <v>204.0004542924461</v>
       </c>
       <c r="V28" t="n">
-        <v>195.1990248075136</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>209.3840902898961</v>
+        <v>200.3311050438548</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -24682,25 +24682,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>330.075481977503</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>334.2489505259127</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>340.8722451234897</v>
       </c>
       <c r="G29" t="n">
         <v>403.7480150306399</v>
       </c>
       <c r="H29" t="n">
-        <v>231.7592395583753</v>
+        <v>298.6541171146935</v>
       </c>
       <c r="I29" t="n">
-        <v>51.06139321367294</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>140.1275091645408</v>
       </c>
       <c r="U29" t="n">
-        <v>254.4184479242485</v>
+        <v>238.5849635816031</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24745,7 +24745,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>320.6891010503774</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24773,13 +24773,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>29.49455899848382</v>
+        <v>105.4424218008434</v>
       </c>
       <c r="H30" t="n">
         <v>65.42529764590962</v>
       </c>
       <c r="I30" t="n">
-        <v>4.090887922119279</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,22 +24812,22 @@
         <v>98.03537458961453</v>
       </c>
       <c r="T30" t="n">
-        <v>88.92773960290134</v>
+        <v>155.8226171592196</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3458692164555</v>
+        <v>119.3980064140959</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>211.1008365810345</v>
+        <v>135.1529737786749</v>
       </c>
       <c r="X30" t="n">
-        <v>98.61485924013655</v>
+        <v>111.7587324082971</v>
       </c>
       <c r="Y30" t="n">
-        <v>81.86007723744871</v>
+        <v>81.86007723744869</v>
       </c>
     </row>
     <row r="31">
@@ -24843,19 +24843,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>91.00482067400083</v>
       </c>
       <c r="E31" t="n">
-        <v>83.35384417800415</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>98.28244672431718</v>
+        <v>165.1773242806354</v>
       </c>
       <c r="H31" t="n">
-        <v>68.60214966161223</v>
+        <v>144.5500124639718</v>
       </c>
       <c r="I31" t="n">
         <v>103.1365670983785</v>
@@ -24894,10 +24894,10 @@
         <v>235.4417556781015</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9483170948056</v>
+        <v>204.0004542924461</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>195.1990248075137</v>
       </c>
       <c r="W31" t="n">
         <v>200.3311050438548</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>339.2240903115263</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -24928,7 +24928,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>340.8722451234897</v>
       </c>
       <c r="G32" t="n">
         <v>403.7480150306399</v>
@@ -24970,13 +24970,13 @@
         <v>113.5793406133823</v>
       </c>
       <c r="T32" t="n">
-        <v>216.0753719669003</v>
+        <v>149.180494410582</v>
       </c>
       <c r="U32" t="n">
         <v>178.4705851218889</v>
       </c>
       <c r="V32" t="n">
-        <v>270.3913163145245</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -24998,19 +24998,19 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6551205385437</v>
+        <v>65.76024298222548</v>
       </c>
       <c r="D33" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
-        <v>52.39301029127702</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8702810193205</v>
+        <v>31.92241821696089</v>
       </c>
       <c r="G33" t="n">
-        <v>29.49455899848382</v>
+        <v>105.4424218008434</v>
       </c>
       <c r="H33" t="n">
         <v>65.42529764590962</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>98.03537458961453</v>
+        <v>22.08751178725497</v>
       </c>
       <c r="T33" t="n">
         <v>155.8226171592196</v>
@@ -25055,13 +25055,13 @@
         <v>195.3458692164555</v>
       </c>
       <c r="V33" t="n">
-        <v>135.6265489345369</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
-        <v>211.1008365810345</v>
+        <v>135.1529737786749</v>
       </c>
       <c r="X33" t="n">
-        <v>98.61485924013655</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
         <v>157.8079400398083</v>
@@ -25077,7 +25077,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>93.43457591154109</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25086,16 +25086,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>87.03695182815508</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>98.28244672431718</v>
+        <v>165.1773242806354</v>
       </c>
       <c r="H34" t="n">
         <v>144.5500124639718</v>
       </c>
       <c r="I34" t="n">
-        <v>27.18870429601893</v>
+        <v>103.1365670983785</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>66.40922732593032</v>
       </c>
       <c r="S34" t="n">
-        <v>177.547131831091</v>
+        <v>101.5992690287315</v>
       </c>
       <c r="T34" t="n">
-        <v>235.4417556781015</v>
+        <v>159.4938928757419</v>
       </c>
       <c r="U34" t="n">
         <v>279.9483170948056</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>195.1990248075137</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>209.3840902898961</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -25156,25 +25156,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>330.075481977503</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>334.2489505259127</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>403.7480150306399</v>
+        <v>336.8531374743217</v>
       </c>
       <c r="H35" t="n">
         <v>298.6541171146935</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>51.06139321367294</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.63147781102277</v>
+        <v>113.5793406133823</v>
       </c>
       <c r="T35" t="n">
-        <v>216.0753719669003</v>
+        <v>140.1275091645408</v>
       </c>
       <c r="U35" t="n">
         <v>254.4184479242485</v>
@@ -25216,13 +25216,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>364.0892135135378</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>320.6891010503775</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>320.9794435190313</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>76.09601267503177</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
         <v>132.6551205385437</v>
@@ -25247,13 +25247,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>105.4424218008434</v>
+        <v>38.54754424452513</v>
       </c>
       <c r="H36" t="n">
         <v>65.42529764590962</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4.090887922119283</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>135.626548934537</v>
       </c>
       <c r="W36" t="n">
-        <v>211.1008365810345</v>
+        <v>135.152973778675</v>
       </c>
       <c r="X36" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
-        <v>81.86007723744875</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="37">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>109.8748465277444</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>93.43457591154113</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25326,7 +25326,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>89.22946147827592</v>
+        <v>165.1773242806354</v>
       </c>
       <c r="H37" t="n">
         <v>144.5500124639718</v>
@@ -25365,22 +25365,22 @@
         <v>177.547131831091</v>
       </c>
       <c r="T37" t="n">
-        <v>235.4417556781015</v>
+        <v>159.4938928757419</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9483170948056</v>
+        <v>213.0534395384874</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>195.1990248075137</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>200.3311050438548</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>155.5934640688046</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25402,13 +25402,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>400.986623583204</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>403.7480150306399</v>
       </c>
       <c r="H38" t="n">
-        <v>298.6541171146935</v>
+        <v>222.706254312334</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>37.63147781102277</v>
+        <v>113.5793406133823</v>
       </c>
       <c r="T38" t="n">
         <v>140.1275091645408</v>
       </c>
       <c r="U38" t="n">
-        <v>178.470585121889</v>
+        <v>178.4705851218889</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -25456,7 +25456,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>380.8034795100917</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>62.95213950687123</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385437</v>
+        <v>131.1855406281351</v>
       </c>
       <c r="D39" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>43.34002504523575</v>
       </c>
       <c r="F39" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>105.4424218008434</v>
+        <v>29.49455899848384</v>
       </c>
       <c r="H39" t="n">
-        <v>65.42529764590962</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4.090887922119283</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25526,13 +25526,13 @@
         <v>155.8226171592196</v>
       </c>
       <c r="U39" t="n">
-        <v>132.5418795822565</v>
+        <v>119.3980064140959</v>
       </c>
       <c r="V39" t="n">
-        <v>135.626548934537</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>135.152973778675</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
@@ -25557,16 +25557,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>83.35384417800418</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>162.4991644001267</v>
       </c>
       <c r="G40" t="n">
-        <v>165.1773242806354</v>
+        <v>89.22946147827591</v>
       </c>
       <c r="H40" t="n">
-        <v>144.5500124639718</v>
+        <v>68.60214966161226</v>
       </c>
       <c r="I40" t="n">
         <v>103.1365670983785</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.40922732593032</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>177.547131831091</v>
       </c>
       <c r="T40" t="n">
-        <v>159.4938928757419</v>
+        <v>235.4417556781015</v>
       </c>
       <c r="U40" t="n">
-        <v>204.0004542924461</v>
+        <v>279.9483170948056</v>
       </c>
       <c r="V40" t="n">
-        <v>195.1990248075138</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>209.3840902898961</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.2854835251993</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>330.075481977503</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>333.5244130515518</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>340.8722451234898</v>
       </c>
       <c r="G41" t="n">
         <v>403.7480150306399</v>
@@ -25648,7 +25648,7 @@
         <v>298.6541171146935</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>51.06139321367294</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>113.5793406133823</v>
       </c>
       <c r="T41" t="n">
-        <v>216.0753719669003</v>
+        <v>140.1275091645408</v>
       </c>
       <c r="U41" t="n">
         <v>254.4184479242485</v>
@@ -25690,13 +25690,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>303.9748350538236</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>320.6891010503775</v>
       </c>
       <c r="Y41" t="n">
-        <v>320.9794435190313</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25715,16 +25715,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475953</v>
+        <v>43.34002504523576</v>
       </c>
       <c r="F42" t="n">
-        <v>106.4007011089118</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>29.49455899848387</v>
+        <v>105.4424218008434</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I42" t="n">
         <v>4.090887922119283</v>
@@ -25766,16 +25766,16 @@
         <v>195.3458692164555</v>
       </c>
       <c r="V42" t="n">
-        <v>135.626548934537</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>135.152973778675</v>
+        <v>144.2059590247162</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>98.6148592401366</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.8079400398083</v>
+        <v>81.86007723744875</v>
       </c>
     </row>
     <row r="43">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>109.8748465277444</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>81.95183542795957</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25800,7 +25800,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>98.28244672431717</v>
+        <v>164.6916740502475</v>
       </c>
       <c r="H43" t="n">
         <v>144.5500124639718</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.40922732593032</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>177.547131831091</v>
@@ -25842,16 +25842,16 @@
         <v>235.4417556781015</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9483170948056</v>
+        <v>204.0004542924461</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>195.1990248075138</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>200.3311050438548</v>
       </c>
       <c r="X43" t="n">
-        <v>160.0125607165539</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25867,25 +25867,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>244.5396994004805</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>324.4714278055105</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>343.301935771954</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>403.2510401841353</v>
+        <v>403.7480150306399</v>
       </c>
       <c r="H44" t="n">
-        <v>293.5644734679276</v>
+        <v>298.6541171146935</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>51.06139321367294</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>102.2545262986572</v>
+        <v>37.63147781102278</v>
       </c>
       <c r="T44" t="n">
-        <v>213.8998645763261</v>
+        <v>140.1275091645408</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3786899365281</v>
+        <v>254.4184479242485</v>
       </c>
       <c r="V44" t="n">
-        <v>126.7826216427879</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>160.3661403820869</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>177.0804063786408</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>43.34002504523576</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>31.92241821696093</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>42.63843216664439</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>93.09630611656613</v>
+        <v>22.08751178725501</v>
       </c>
       <c r="T45" t="n">
-        <v>154.7508334693185</v>
+        <v>155.8226171592196</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3283754674364</v>
+        <v>195.3458692164555</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -26012,7 +26012,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>88.22806181749253</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -26037,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>164.9543984734636</v>
+        <v>98.28244672431718</v>
       </c>
       <c r="H46" t="n">
-        <v>142.5679993783892</v>
+        <v>144.5500124639718</v>
       </c>
       <c r="I46" t="n">
-        <v>96.43258009724633</v>
+        <v>103.1365670983785</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>56.38567239618433</v>
+        <v>66.40922732593032</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6621429915595</v>
+        <v>101.5992690287315</v>
       </c>
       <c r="T46" t="n">
-        <v>234.4892545020035</v>
+        <v>235.4417556781015</v>
       </c>
       <c r="U46" t="n">
-        <v>86.55074168213966</v>
+        <v>204.0004542924461</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>56.72241037211813</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>16.40386604481722</v>
+        <v>160.0125607165539</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.931784151026704</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>192315.6126082563</v>
+        <v>192315.6126082562</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>206643.641408463</v>
+        <v>206643.6414084629</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>206643.641408463</v>
+        <v>206643.6414084629</v>
       </c>
     </row>
     <row r="10">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>327169.4497110966</v>
+        <v>206643.641408463</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>36376.70456762835</v>
       </c>
       <c r="C2" t="n">
-        <v>36376.70456762833</v>
+        <v>36376.70456762835</v>
       </c>
       <c r="D2" t="n">
         <v>37640.7190524379</v>
       </c>
       <c r="E2" t="n">
-        <v>51571.10576695119</v>
+        <v>51571.1057669512</v>
       </c>
       <c r="F2" t="n">
-        <v>51571.10576695119</v>
+        <v>51571.10576695121</v>
       </c>
       <c r="G2" t="n">
-        <v>55466.50139910736</v>
+        <v>55466.5013991073</v>
       </c>
       <c r="H2" t="n">
-        <v>55466.50139910734</v>
+        <v>55466.5013991073</v>
       </c>
       <c r="I2" t="n">
-        <v>55466.50139910735</v>
+        <v>55466.50139910732</v>
       </c>
       <c r="J2" t="n">
-        <v>55466.50139910734</v>
+        <v>55466.50139910733</v>
       </c>
       <c r="K2" t="n">
+        <v>55466.5013991073</v>
+      </c>
+      <c r="L2" t="n">
+        <v>55466.50139910731</v>
+      </c>
+      <c r="M2" t="n">
         <v>55466.50139910732</v>
       </c>
-      <c r="L2" t="n">
-        <v>55466.50139910734</v>
-      </c>
-      <c r="M2" t="n">
-        <v>55466.50139910734</v>
-      </c>
       <c r="N2" t="n">
-        <v>55466.5013991073</v>
+        <v>55466.50139910732</v>
       </c>
       <c r="O2" t="n">
         <v>55466.50139910731</v>
       </c>
       <c r="P2" t="n">
-        <v>87542.42854013633</v>
+        <v>55466.5013991073</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16923.88090149947</v>
+        <v>16923.88090149941</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4176.359574393223</v>
+        <v>4176.359574393214</v>
       </c>
       <c r="P3" t="n">
-        <v>116225.5260405881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26435,13 +26435,13 @@
         <v>3332.327916037651</v>
       </c>
       <c r="H4" t="n">
-        <v>3332.327916037652</v>
+        <v>3332.327916037651</v>
       </c>
       <c r="I4" t="n">
-        <v>3332.327916037652</v>
+        <v>3332.327916037651</v>
       </c>
       <c r="J4" t="n">
-        <v>3332.327916037653</v>
+        <v>3332.327916037651</v>
       </c>
       <c r="K4" t="n">
         <v>3332.327916037651</v>
@@ -26453,13 +26453,13 @@
         <v>3332.327916037651</v>
       </c>
       <c r="N4" t="n">
-        <v>3332.327916037651</v>
+        <v>3332.327916037652</v>
       </c>
       <c r="O4" t="n">
         <v>3332.327916037651</v>
       </c>
       <c r="P4" t="n">
-        <v>6370.933865405135</v>
+        <v>3332.327916037651</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>8063.762766257703</v>
       </c>
       <c r="G5" t="n">
-        <v>9460.071166703499</v>
+        <v>9460.071166703498</v>
       </c>
       <c r="H5" t="n">
-        <v>9460.071166703499</v>
+        <v>9460.071166703498</v>
       </c>
       <c r="I5" t="n">
-        <v>9460.071166703501</v>
+        <v>9460.071166703498</v>
       </c>
       <c r="J5" t="n">
-        <v>9460.071166703501</v>
+        <v>9460.071166703496</v>
       </c>
       <c r="K5" t="n">
-        <v>9460.071166703496</v>
+        <v>9460.071166703498</v>
       </c>
       <c r="L5" t="n">
         <v>9460.071166703496</v>
       </c>
       <c r="M5" t="n">
-        <v>9460.071166703492</v>
+        <v>9460.071166703494</v>
       </c>
       <c r="N5" t="n">
-        <v>9460.071166703492</v>
+        <v>9460.071166703494</v>
       </c>
       <c r="O5" t="n">
         <v>9460.071166703492</v>
       </c>
       <c r="P5" t="n">
-        <v>20886.45015162827</v>
+        <v>9460.071166703492</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21502.03181079056</v>
+        <v>-22888.34437733093</v>
       </c>
       <c r="C6" t="n">
-        <v>-21502.03181079057</v>
+        <v>-22888.34437733093</v>
       </c>
       <c r="D6" t="n">
-        <v>-90062.43578879384</v>
+        <v>-91440.32159210216</v>
       </c>
       <c r="E6" t="n">
-        <v>-66754.73051412709</v>
+        <v>-68039.74707267198</v>
       </c>
       <c r="F6" t="n">
-        <v>40234.97548232686</v>
+        <v>38949.95892378198</v>
       </c>
       <c r="G6" t="n">
-        <v>25750.22141486675</v>
+        <v>24491.17416053621</v>
       </c>
       <c r="H6" t="n">
-        <v>42674.10231636619</v>
+        <v>41415.05506203563</v>
       </c>
       <c r="I6" t="n">
-        <v>42674.1023163662</v>
+        <v>41415.05506203564</v>
       </c>
       <c r="J6" t="n">
-        <v>42674.10231636619</v>
+        <v>41415.05506203567</v>
       </c>
       <c r="K6" t="n">
-        <v>42674.10231636617</v>
+        <v>41415.05506203563</v>
       </c>
       <c r="L6" t="n">
-        <v>42674.10231636619</v>
+        <v>41415.05506203564</v>
       </c>
       <c r="M6" t="n">
-        <v>28072.38308043078</v>
+        <v>26813.33582610023</v>
       </c>
       <c r="N6" t="n">
-        <v>42674.10231636616</v>
+        <v>41415.05506203565</v>
       </c>
       <c r="O6" t="n">
-        <v>38497.74274197294</v>
+        <v>37238.69548764243</v>
       </c>
       <c r="P6" t="n">
-        <v>-55940.48151748518</v>
+        <v>41415.05506203564</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>222.1303260697263</v>
       </c>
       <c r="P3" t="n">
-        <v>345.7528191377622</v>
+        <v>222.1303260697263</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>58.59343845177215</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="F4" t="n">
         <v>58.59343845177214</v>
       </c>
       <c r="G4" t="n">
-        <v>75.94786280235961</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="H4" t="n">
-        <v>75.94786280235962</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="I4" t="n">
-        <v>75.94786280235964</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="J4" t="n">
-        <v>75.94786280235964</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="K4" t="n">
-        <v>75.94786280235957</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="L4" t="n">
         <v>75.94786280235957</v>
       </c>
       <c r="M4" t="n">
+        <v>75.94786280235954</v>
+      </c>
+      <c r="N4" t="n">
+        <v>75.94786280235954</v>
+      </c>
+      <c r="O4" t="n">
         <v>75.94786280235952</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>75.94786280235952</v>
-      </c>
-      <c r="O4" t="n">
-        <v>75.94786280235951</v>
-      </c>
-      <c r="P4" t="n">
-        <v>219.5565574740962</v>
       </c>
     </row>
   </sheetData>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15.64951375826053</v>
+        <v>15.64951375826047</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>123.6224930680359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>58.59343845177215</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>17.35442435058747</v>
+        <v>17.35442435058744</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>58.59343845177211</v>
+        <v>58.59343845177212</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>17.35442435058746</v>
+        <v>17.35442435058742</v>
       </c>
       <c r="P4" t="n">
-        <v>143.6086946717367</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>58.59343845177215</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>17.35442435058747</v>
+        <v>17.35442435058744</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.382254936446342</v>
+        <v>0.3822549364463421</v>
       </c>
       <c r="H8" t="n">
-        <v>3.914768367881101</v>
+        <v>3.914768367881102</v>
       </c>
       <c r="I8" t="n">
-        <v>14.73688343734761</v>
+        <v>14.73688343734762</v>
       </c>
       <c r="J8" t="n">
         <v>32.44340991221275</v>
@@ -31530,10 +31530,10 @@
         <v>48.62426137198642</v>
       </c>
       <c r="L8" t="n">
-        <v>60.32269588325617</v>
+        <v>60.32269588325618</v>
       </c>
       <c r="M8" t="n">
-        <v>67.1206221092838</v>
+        <v>67.12062210928381</v>
       </c>
       <c r="N8" t="n">
         <v>68.20670394746197</v>
@@ -31542,7 +31542,7 @@
         <v>64.40565642317367</v>
       </c>
       <c r="P8" t="n">
-        <v>54.96873767965458</v>
+        <v>54.96873767965459</v>
       </c>
       <c r="Q8" t="n">
         <v>41.27923276816995</v>
@@ -31557,7 +31557,7 @@
         <v>1.673320984293863</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03058039491570736</v>
+        <v>0.03058039491570735</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2045244218920217</v>
+        <v>0.2045244218920218</v>
       </c>
       <c r="H9" t="n">
         <v>1.975275337746631</v>
@@ -31612,7 +31612,7 @@
         <v>44.40781362177429</v>
       </c>
       <c r="M9" t="n">
-        <v>51.82182391536006</v>
+        <v>51.82182391536007</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
@@ -31633,7 +31633,7 @@
         <v>3.798951432950489</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8243769461349469</v>
+        <v>0.8243769461349471</v>
       </c>
       <c r="U9" t="n">
         <v>0.01345555407184354</v>
@@ -31697,16 +31697,16 @@
         <v>26.23903630522655</v>
       </c>
       <c r="O10" t="n">
-        <v>24.23599693896882</v>
+        <v>24.23599693896883</v>
       </c>
       <c r="P10" t="n">
         <v>20.73808227913822</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.35797323159517</v>
+        <v>14.35797323159518</v>
       </c>
       <c r="R10" t="n">
-        <v>7.709753078218403</v>
+        <v>7.709753078218404</v>
       </c>
       <c r="S10" t="n">
         <v>2.98819180164672</v>
@@ -31770,7 +31770,7 @@
         <v>130.9918423672027</v>
       </c>
       <c r="M11" t="n">
-        <v>145.75366405944</v>
+        <v>145.7536640594399</v>
       </c>
       <c r="N11" t="n">
         <v>148.112110724686</v>
@@ -31779,7 +31779,7 @@
         <v>139.8580661923357</v>
       </c>
       <c r="P11" t="n">
-        <v>119.365623764439</v>
+        <v>119.3656237644389</v>
       </c>
       <c r="Q11" t="n">
         <v>89.63861234371784</v>
@@ -31855,10 +31855,10 @@
         <v>111.7868318455221</v>
       </c>
       <c r="O12" t="n">
-        <v>105.6694775986801</v>
+        <v>89.43809092417413</v>
       </c>
       <c r="P12" t="n">
-        <v>68.57768508414125</v>
+        <v>84.80907175864721</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -32089,13 +32089,13 @@
         <v>112.5320427097489</v>
       </c>
       <c r="N15" t="n">
-        <v>111.7868318455221</v>
+        <v>95.55544517101617</v>
       </c>
       <c r="O15" t="n">
         <v>105.6694775986801</v>
       </c>
       <c r="P15" t="n">
-        <v>68.57768508414122</v>
+        <v>84.80907175864721</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8929862354561861</v>
+        <v>0.8929862354561857</v>
       </c>
       <c r="H17" t="n">
-        <v>9.145295283865668</v>
+        <v>9.145295283865664</v>
       </c>
       <c r="I17" t="n">
-        <v>34.42685184242465</v>
+        <v>34.42685184242463</v>
       </c>
       <c r="J17" t="n">
-        <v>75.79109050154953</v>
+        <v>75.79109050154952</v>
       </c>
       <c r="K17" t="n">
         <v>113.5911978484099</v>
@@ -32253,22 +32253,22 @@
         <v>150.4581345792186</v>
       </c>
       <c r="P17" t="n">
-        <v>128.412536891394</v>
+        <v>128.4125368913939</v>
       </c>
       <c r="Q17" t="n">
-        <v>96.43246733411927</v>
+        <v>96.43246733411925</v>
       </c>
       <c r="R17" t="n">
-        <v>56.09404661297469</v>
+        <v>56.09404661297468</v>
       </c>
       <c r="S17" t="n">
-        <v>20.34892384045786</v>
+        <v>20.34892384045785</v>
       </c>
       <c r="T17" t="n">
-        <v>3.909047245709456</v>
+        <v>3.909047245709455</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07143889883649486</v>
+        <v>0.07143889883649485</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4777897579612984</v>
+        <v>0.4777897579612982</v>
       </c>
       <c r="H18" t="n">
-        <v>4.614443188731488</v>
+        <v>4.614443188731487</v>
       </c>
       <c r="I18" t="n">
         <v>16.45021754384295</v>
       </c>
       <c r="J18" t="n">
-        <v>45.14065428177338</v>
+        <v>45.14065428177337</v>
       </c>
       <c r="K18" t="n">
-        <v>77.15256806518036</v>
+        <v>77.15256806518033</v>
       </c>
       <c r="L18" t="n">
         <v>103.7411489819038</v>
@@ -32329,25 +32329,25 @@
         <v>124.265152883101</v>
       </c>
       <c r="O18" t="n">
-        <v>113.6783377198532</v>
+        <v>113.6783377198533</v>
       </c>
       <c r="P18" t="n">
-        <v>91.23688807946935</v>
+        <v>91.23688807946932</v>
       </c>
       <c r="Q18" t="n">
-        <v>60.98944348993697</v>
+        <v>60.98944348993695</v>
       </c>
       <c r="R18" t="n">
-        <v>29.66487637587782</v>
+        <v>29.66487637587781</v>
       </c>
       <c r="S18" t="n">
-        <v>8.874735197219724</v>
+        <v>8.874735197219723</v>
       </c>
       <c r="T18" t="n">
         <v>1.92582801564225</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03143353670798017</v>
+        <v>0.03143353670798016</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4005628830765558</v>
+        <v>0.4005628830765557</v>
       </c>
       <c r="H19" t="n">
-        <v>3.561368178626108</v>
+        <v>3.561368178626107</v>
       </c>
       <c r="I19" t="n">
         <v>12.04601833833861</v>
@@ -32399,34 +32399,34 @@
         <v>46.53812405198529</v>
       </c>
       <c r="L19" t="n">
-        <v>59.55277627121814</v>
+        <v>59.55277627121812</v>
       </c>
       <c r="M19" t="n">
-        <v>62.79005266262774</v>
+        <v>62.79005266262772</v>
       </c>
       <c r="N19" t="n">
-        <v>61.29704555297881</v>
+        <v>61.29704555297879</v>
       </c>
       <c r="O19" t="n">
-        <v>56.61774278249356</v>
+        <v>56.61774278249355</v>
       </c>
       <c r="P19" t="n">
         <v>48.44625996773178</v>
       </c>
       <c r="Q19" t="n">
-        <v>33.54167923652869</v>
+        <v>33.54167923652868</v>
       </c>
       <c r="R19" t="n">
         <v>18.01076381542404</v>
       </c>
       <c r="S19" t="n">
-        <v>6.980718607797793</v>
+        <v>6.980718607797791</v>
       </c>
       <c r="T19" t="n">
         <v>1.711495954963465</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02184888453144853</v>
+        <v>0.02184888453144852</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8929862354561859</v>
+        <v>0.8929862354561857</v>
       </c>
       <c r="H20" t="n">
-        <v>9.145295283865666</v>
+        <v>9.145295283865664</v>
       </c>
       <c r="I20" t="n">
-        <v>34.42685184242464</v>
+        <v>34.42685184242463</v>
       </c>
       <c r="J20" t="n">
-        <v>75.79109050154953</v>
+        <v>75.79109050154952</v>
       </c>
       <c r="K20" t="n">
         <v>113.5911978484099</v>
@@ -32490,22 +32490,22 @@
         <v>150.4581345792186</v>
       </c>
       <c r="P20" t="n">
-        <v>128.412536891394</v>
+        <v>128.4125368913939</v>
       </c>
       <c r="Q20" t="n">
-        <v>96.43246733411927</v>
+        <v>96.43246733411925</v>
       </c>
       <c r="R20" t="n">
-        <v>56.09404661297469</v>
+        <v>56.09404661297468</v>
       </c>
       <c r="S20" t="n">
-        <v>20.34892384045786</v>
+        <v>20.34892384045785</v>
       </c>
       <c r="T20" t="n">
-        <v>3.909047245709456</v>
+        <v>3.909047245709455</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07143889883649486</v>
+        <v>0.07143889883649485</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4777897579612984</v>
+        <v>0.4777897579612982</v>
       </c>
       <c r="H21" t="n">
         <v>4.614443188731487</v>
@@ -32554,7 +32554,7 @@
         <v>45.14065428177337</v>
       </c>
       <c r="K21" t="n">
-        <v>77.15256806518036</v>
+        <v>77.15256806518035</v>
       </c>
       <c r="L21" t="n">
         <v>103.7411489819038</v>
@@ -32569,22 +32569,22 @@
         <v>113.6783377198533</v>
       </c>
       <c r="P21" t="n">
-        <v>91.23688807946934</v>
+        <v>91.23688807946932</v>
       </c>
       <c r="Q21" t="n">
-        <v>60.98944348993697</v>
+        <v>60.98944348993695</v>
       </c>
       <c r="R21" t="n">
         <v>29.66487637587781</v>
       </c>
       <c r="S21" t="n">
-        <v>8.874735197219724</v>
+        <v>8.874735197219723</v>
       </c>
       <c r="T21" t="n">
         <v>1.92582801564225</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03143353670798017</v>
+        <v>0.03143353670798016</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,7 +32624,7 @@
         <v>0.4005628830765557</v>
       </c>
       <c r="H22" t="n">
-        <v>3.561368178626108</v>
+        <v>3.561368178626107</v>
       </c>
       <c r="I22" t="n">
         <v>12.04601833833861</v>
@@ -32636,28 +32636,28 @@
         <v>46.53812405198529</v>
       </c>
       <c r="L22" t="n">
-        <v>59.55277627121813</v>
+        <v>59.55277627121812</v>
       </c>
       <c r="M22" t="n">
-        <v>62.79005266262773</v>
+        <v>62.79005266262772</v>
       </c>
       <c r="N22" t="n">
-        <v>61.2970455529788</v>
+        <v>61.29704555297879</v>
       </c>
       <c r="O22" t="n">
-        <v>56.61774278249356</v>
+        <v>56.61774278249355</v>
       </c>
       <c r="P22" t="n">
         <v>48.44625996773178</v>
       </c>
       <c r="Q22" t="n">
-        <v>33.54167923652869</v>
+        <v>33.54167923652868</v>
       </c>
       <c r="R22" t="n">
         <v>18.01076381542404</v>
       </c>
       <c r="S22" t="n">
-        <v>6.980718607797792</v>
+        <v>6.980718607797791</v>
       </c>
       <c r="T22" t="n">
         <v>1.711495954963465</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8929862354561859</v>
+        <v>0.8929862354561857</v>
       </c>
       <c r="H23" t="n">
-        <v>9.145295283865666</v>
+        <v>9.145295283865664</v>
       </c>
       <c r="I23" t="n">
-        <v>34.42685184242464</v>
+        <v>34.42685184242463</v>
       </c>
       <c r="J23" t="n">
-        <v>75.79109050154953</v>
+        <v>75.79109050154952</v>
       </c>
       <c r="K23" t="n">
         <v>113.5911978484099</v>
@@ -32727,22 +32727,22 @@
         <v>150.4581345792186</v>
       </c>
       <c r="P23" t="n">
-        <v>128.412536891394</v>
+        <v>128.4125368913939</v>
       </c>
       <c r="Q23" t="n">
-        <v>96.43246733411927</v>
+        <v>96.43246733411925</v>
       </c>
       <c r="R23" t="n">
-        <v>56.09404661297469</v>
+        <v>56.09404661297468</v>
       </c>
       <c r="S23" t="n">
-        <v>20.34892384045786</v>
+        <v>20.34892384045785</v>
       </c>
       <c r="T23" t="n">
-        <v>3.909047245709456</v>
+        <v>3.909047245709455</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07143889883649486</v>
+        <v>0.07143889883649485</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4777897579612984</v>
+        <v>0.4777897579612982</v>
       </c>
       <c r="H24" t="n">
         <v>4.614443188731487</v>
@@ -32791,7 +32791,7 @@
         <v>45.14065428177337</v>
       </c>
       <c r="K24" t="n">
-        <v>77.15256806518036</v>
+        <v>77.15256806518035</v>
       </c>
       <c r="L24" t="n">
         <v>103.7411489819038</v>
@@ -32806,22 +32806,22 @@
         <v>113.6783377198533</v>
       </c>
       <c r="P24" t="n">
-        <v>91.23688807946934</v>
+        <v>91.23688807946932</v>
       </c>
       <c r="Q24" t="n">
-        <v>60.98944348993697</v>
+        <v>60.98944348993695</v>
       </c>
       <c r="R24" t="n">
         <v>29.66487637587781</v>
       </c>
       <c r="S24" t="n">
-        <v>8.874735197219724</v>
+        <v>8.874735197219723</v>
       </c>
       <c r="T24" t="n">
         <v>1.92582801564225</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03143353670798017</v>
+        <v>0.03143353670798016</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,7 +32861,7 @@
         <v>0.4005628830765557</v>
       </c>
       <c r="H25" t="n">
-        <v>3.561368178626108</v>
+        <v>3.561368178626107</v>
       </c>
       <c r="I25" t="n">
         <v>12.04601833833861</v>
@@ -32873,28 +32873,28 @@
         <v>46.53812405198529</v>
       </c>
       <c r="L25" t="n">
-        <v>59.55277627121813</v>
+        <v>59.55277627121812</v>
       </c>
       <c r="M25" t="n">
-        <v>62.79005266262773</v>
+        <v>62.79005266262772</v>
       </c>
       <c r="N25" t="n">
-        <v>61.2970455529788</v>
+        <v>61.29704555297879</v>
       </c>
       <c r="O25" t="n">
-        <v>56.61774278249356</v>
+        <v>56.61774278249355</v>
       </c>
       <c r="P25" t="n">
         <v>48.44625996773178</v>
       </c>
       <c r="Q25" t="n">
-        <v>33.54167923652869</v>
+        <v>33.54167923652868</v>
       </c>
       <c r="R25" t="n">
         <v>18.01076381542404</v>
       </c>
       <c r="S25" t="n">
-        <v>6.980718607797792</v>
+        <v>6.980718607797791</v>
       </c>
       <c r="T25" t="n">
         <v>1.711495954963465</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8929862354561859</v>
+        <v>0.8929862354561857</v>
       </c>
       <c r="H26" t="n">
-        <v>9.145295283865666</v>
+        <v>9.145295283865664</v>
       </c>
       <c r="I26" t="n">
-        <v>34.42685184242464</v>
+        <v>34.42685184242463</v>
       </c>
       <c r="J26" t="n">
-        <v>75.79109050154953</v>
+        <v>75.79109050154952</v>
       </c>
       <c r="K26" t="n">
         <v>113.5911978484099</v>
@@ -32964,22 +32964,22 @@
         <v>150.4581345792186</v>
       </c>
       <c r="P26" t="n">
-        <v>128.412536891394</v>
+        <v>128.4125368913939</v>
       </c>
       <c r="Q26" t="n">
-        <v>96.43246733411927</v>
+        <v>96.43246733411925</v>
       </c>
       <c r="R26" t="n">
-        <v>56.09404661297469</v>
+        <v>56.09404661297468</v>
       </c>
       <c r="S26" t="n">
-        <v>20.34892384045786</v>
+        <v>20.34892384045785</v>
       </c>
       <c r="T26" t="n">
-        <v>3.909047245709456</v>
+        <v>3.909047245709455</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07143889883649486</v>
+        <v>0.07143889883649485</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4777897579612984</v>
+        <v>0.4777897579612982</v>
       </c>
       <c r="H27" t="n">
         <v>4.614443188731487</v>
@@ -33028,7 +33028,7 @@
         <v>45.14065428177337</v>
       </c>
       <c r="K27" t="n">
-        <v>77.15256806518036</v>
+        <v>77.15256806518035</v>
       </c>
       <c r="L27" t="n">
         <v>103.7411489819038</v>
@@ -33043,22 +33043,22 @@
         <v>113.6783377198533</v>
       </c>
       <c r="P27" t="n">
-        <v>91.23688807946934</v>
+        <v>91.23688807946932</v>
       </c>
       <c r="Q27" t="n">
-        <v>60.98944348993697</v>
+        <v>60.98944348993695</v>
       </c>
       <c r="R27" t="n">
         <v>29.66487637587781</v>
       </c>
       <c r="S27" t="n">
-        <v>8.874735197219724</v>
+        <v>8.874735197219723</v>
       </c>
       <c r="T27" t="n">
         <v>1.92582801564225</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03143353670798017</v>
+        <v>0.03143353670798016</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,7 +33098,7 @@
         <v>0.4005628830765557</v>
       </c>
       <c r="H28" t="n">
-        <v>3.561368178626108</v>
+        <v>3.561368178626107</v>
       </c>
       <c r="I28" t="n">
         <v>12.04601833833861</v>
@@ -33110,28 +33110,28 @@
         <v>46.53812405198529</v>
       </c>
       <c r="L28" t="n">
-        <v>59.55277627121813</v>
+        <v>59.55277627121812</v>
       </c>
       <c r="M28" t="n">
-        <v>62.79005266262773</v>
+        <v>62.79005266262772</v>
       </c>
       <c r="N28" t="n">
-        <v>61.2970455529788</v>
+        <v>61.29704555297879</v>
       </c>
       <c r="O28" t="n">
-        <v>56.61774278249356</v>
+        <v>56.61774278249355</v>
       </c>
       <c r="P28" t="n">
         <v>48.44625996773178</v>
       </c>
       <c r="Q28" t="n">
-        <v>33.54167923652869</v>
+        <v>33.54167923652868</v>
       </c>
       <c r="R28" t="n">
         <v>18.01076381542404</v>
       </c>
       <c r="S28" t="n">
-        <v>6.980718607797792</v>
+        <v>6.980718607797791</v>
       </c>
       <c r="T28" t="n">
         <v>1.711495954963465</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.389961081960852</v>
+        <v>0.8929862354561855</v>
       </c>
       <c r="H44" t="n">
-        <v>14.23493893063158</v>
+        <v>9.145295283865662</v>
       </c>
       <c r="I44" t="n">
-        <v>53.5864746122958</v>
+        <v>34.42685184242463</v>
       </c>
       <c r="J44" t="n">
-        <v>117.971209380075</v>
+        <v>75.79109050154949</v>
       </c>
       <c r="K44" t="n">
-        <v>176.8082619794779</v>
+        <v>113.5911978484098</v>
       </c>
       <c r="L44" t="n">
-        <v>219.3462834415373</v>
+        <v>140.9199253517521</v>
       </c>
       <c r="M44" t="n">
-        <v>244.0650038328586</v>
+        <v>156.800569316546</v>
       </c>
       <c r="N44" t="n">
-        <v>248.0142307569799</v>
+        <v>159.337766458036</v>
       </c>
       <c r="O44" t="n">
-        <v>234.1928052482317</v>
+        <v>150.4581345792185</v>
       </c>
       <c r="P44" t="n">
-        <v>199.8781410373231</v>
+        <v>128.4125368913939</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.1001597896</v>
+        <v>96.43246733411922</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472344</v>
+        <v>56.09404661297467</v>
       </c>
       <c r="S44" t="n">
-        <v>31.67373815518295</v>
+        <v>20.34892384045785</v>
       </c>
       <c r="T44" t="n">
-        <v>6.084554636283633</v>
+        <v>3.909047245709454</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1111968865568681</v>
+        <v>0.07143889883649483</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7436947430510357</v>
+        <v>0.4777897579612981</v>
       </c>
       <c r="H45" t="n">
-        <v>7.18252554472974</v>
+        <v>4.614443188731485</v>
       </c>
       <c r="I45" t="n">
-        <v>25.60527953048522</v>
+        <v>16.45021754384294</v>
       </c>
       <c r="J45" t="n">
-        <v>70.26284412308053</v>
+        <v>45.14065428177336</v>
       </c>
       <c r="K45" t="n">
-        <v>120.0903919074999</v>
+        <v>77.15256806518033</v>
       </c>
       <c r="L45" t="n">
-        <v>161.4763519944804</v>
+        <v>103.7411489819038</v>
       </c>
       <c r="M45" t="n">
-        <v>188.4352864300804</v>
+        <v>121.0610277080008</v>
       </c>
       <c r="N45" t="n">
-        <v>193.4226077551902</v>
+        <v>124.265152883101</v>
       </c>
       <c r="O45" t="n">
-        <v>176.9438979223225</v>
+        <v>113.6783377198532</v>
       </c>
       <c r="P45" t="n">
-        <v>142.0130777322631</v>
+        <v>91.2368880794693</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.93198158665501</v>
+        <v>60.98944348993694</v>
       </c>
       <c r="R45" t="n">
-        <v>46.17431045013362</v>
+        <v>29.6648763758778</v>
       </c>
       <c r="S45" t="n">
-        <v>13.81380367026813</v>
+        <v>8.874735197219721</v>
       </c>
       <c r="T45" t="n">
-        <v>2.997611705543428</v>
+        <v>1.925828015642249</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04892728572704184</v>
+        <v>0.03143353670798015</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6234886902484236</v>
+        <v>0.4005628830765556</v>
       </c>
       <c r="H46" t="n">
-        <v>5.543381264208715</v>
+        <v>3.561368178626106</v>
       </c>
       <c r="I46" t="n">
-        <v>18.75000533947078</v>
+        <v>12.0460183383386</v>
       </c>
       <c r="J46" t="n">
-        <v>44.08065040056354</v>
+        <v>28.31979583351248</v>
       </c>
       <c r="K46" t="n">
-        <v>72.43804964886228</v>
+        <v>46.53812405198527</v>
       </c>
       <c r="L46" t="n">
-        <v>92.69576400293381</v>
+        <v>59.55277627121811</v>
       </c>
       <c r="M46" t="n">
-        <v>97.73468623594151</v>
+        <v>62.79005266262771</v>
       </c>
       <c r="N46" t="n">
-        <v>95.41077384501564</v>
+        <v>61.29704555297878</v>
       </c>
       <c r="O46" t="n">
-        <v>88.12729232711357</v>
+        <v>56.61774278249354</v>
       </c>
       <c r="P46" t="n">
-        <v>75.40812304604566</v>
+        <v>48.44625996773176</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.20867568980209</v>
+        <v>33.54167923652867</v>
       </c>
       <c r="R46" t="n">
-        <v>28.03431874517002</v>
+        <v>18.01076381542403</v>
       </c>
       <c r="S46" t="n">
-        <v>10.86570744732934</v>
+        <v>6.980718607797789</v>
       </c>
       <c r="T46" t="n">
-        <v>2.663997131061445</v>
+        <v>1.711495954963465</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03400847401355041</v>
+        <v>0.02184888453144851</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>35.50644430435783</v>
       </c>
       <c r="M11" t="n">
-        <v>52.4634396023945</v>
+        <v>52.46343960239447</v>
       </c>
       <c r="N11" t="n">
         <v>55.19981996806668</v>
@@ -35427,7 +35427,7 @@
         <v>46.66829056655256</v>
       </c>
       <c r="P11" t="n">
-        <v>25.71626048355479</v>
+        <v>25.71626048355478</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>54.96775897133148</v>
       </c>
       <c r="N12" t="n">
-        <v>58.59343845177215</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="O12" t="n">
-        <v>47.91799859868011</v>
+        <v>31.68661192417413</v>
       </c>
       <c r="P12" t="n">
-        <v>14.31805008133751</v>
+        <v>30.54943675584346</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>40.54940848303774</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7288733936675698</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="M13" t="n">
-        <v>14.9477449204498</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="N13" t="n">
-        <v>58.59343845177215</v>
+        <v>56.22602679715509</v>
       </c>
       <c r="O13" t="n">
-        <v>58.59343845177215</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>58.59343845177215</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>54.96775897133148</v>
       </c>
       <c r="N15" t="n">
-        <v>58.59343845177214</v>
+        <v>42.36205177726617</v>
       </c>
       <c r="O15" t="n">
         <v>47.91799859868011</v>
       </c>
       <c r="P15" t="n">
-        <v>14.31805008133748</v>
+        <v>30.54943675584346</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>40.54940848303774</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>12.84631616207234</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="L16" t="n">
         <v>0.7288733936675698</v>
@@ -35816,16 +35816,16 @@
         <v>2.10142875837743</v>
       </c>
       <c r="N16" t="n">
-        <v>58.59343845177214</v>
+        <v>5.265903895497075</v>
       </c>
       <c r="O16" t="n">
-        <v>58.59343845177214</v>
+        <v>48.12982074961302</v>
       </c>
       <c r="P16" t="n">
         <v>58.59343845177214</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.467499168241588</v>
+        <v>2.467499168241574</v>
       </c>
       <c r="K17" t="n">
-        <v>24.45480817519278</v>
+        <v>24.45480817519275</v>
       </c>
       <c r="L17" t="n">
-        <v>45.43452728890738</v>
+        <v>45.43452728890735</v>
       </c>
       <c r="M17" t="n">
-        <v>63.51034485950068</v>
+        <v>63.51034485950065</v>
       </c>
       <c r="N17" t="n">
-        <v>66.42547570141672</v>
+        <v>66.42547570141666</v>
       </c>
       <c r="O17" t="n">
-        <v>57.26835895343545</v>
+        <v>57.26835895343542</v>
       </c>
       <c r="P17" t="n">
-        <v>34.7631736105098</v>
+        <v>34.76317361050977</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.39866293496722</v>
+        <v>6.398662934967206</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>21.32678528056497</v>
+        <v>21.32678528056494</v>
       </c>
       <c r="L18" t="n">
-        <v>47.6266251710548</v>
+        <v>47.62662517105478</v>
       </c>
       <c r="M18" t="n">
-        <v>63.49674396958347</v>
+        <v>63.49674396958344</v>
       </c>
       <c r="N18" t="n">
-        <v>71.07175948935102</v>
+        <v>71.071759489351</v>
       </c>
       <c r="O18" t="n">
-        <v>55.92685871985323</v>
+        <v>55.92685871985328</v>
       </c>
       <c r="P18" t="n">
-        <v>36.9772530766656</v>
+        <v>36.97725307666558</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.296824985098255</v>
+        <v>4.296824985098233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>42.54459321251301</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>72.87926228509255</v>
+        <v>23.80955890873188</v>
       </c>
       <c r="M19" t="n">
-        <v>75.94786280235961</v>
+        <v>6.525110163847678</v>
       </c>
       <c r="N19" t="n">
-        <v>75.94786280235961</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="O19" t="n">
-        <v>75.94786280235961</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.467499168241588</v>
+        <v>2.467499168241574</v>
       </c>
       <c r="K20" t="n">
-        <v>24.45480817519277</v>
+        <v>24.45480817519275</v>
       </c>
       <c r="L20" t="n">
         <v>45.43452728890735</v>
@@ -36132,16 +36132,16 @@
         <v>63.51034485950065</v>
       </c>
       <c r="N20" t="n">
-        <v>66.42547570141669</v>
+        <v>66.42547570141666</v>
       </c>
       <c r="O20" t="n">
         <v>57.26835895343542</v>
       </c>
       <c r="P20" t="n">
-        <v>34.7631736105098</v>
+        <v>34.76317361050977</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.39866293496722</v>
+        <v>6.398662934967206</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>21.32678528056497</v>
+        <v>21.32678528056496</v>
       </c>
       <c r="L21" t="n">
         <v>47.62662517105478</v>
       </c>
       <c r="M21" t="n">
-        <v>63.49674396958346</v>
+        <v>63.49674396958344</v>
       </c>
       <c r="N21" t="n">
-        <v>71.07175948935102</v>
+        <v>71.071759489351</v>
       </c>
       <c r="O21" t="n">
-        <v>55.92685871985329</v>
+        <v>55.92685871985328</v>
       </c>
       <c r="P21" t="n">
-        <v>36.97725307666559</v>
+        <v>36.97725307666558</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.296824985098247</v>
+        <v>4.296824985098233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="L22" t="n">
-        <v>4.924482377316622</v>
+        <v>72.33641757559536</v>
       </c>
       <c r="M22" t="n">
-        <v>67.95477990777597</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="N22" t="n">
-        <v>75.94786280235962</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="O22" t="n">
-        <v>75.94786280235962</v>
+        <v>0.5428447094972242</v>
       </c>
       <c r="P22" t="n">
-        <v>75.94786280235962</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.467499168241588</v>
+        <v>2.467499168241574</v>
       </c>
       <c r="K23" t="n">
-        <v>24.45480817519277</v>
+        <v>24.45480817519275</v>
       </c>
       <c r="L23" t="n">
         <v>45.43452728890735</v>
@@ -36369,16 +36369,16 @@
         <v>63.51034485950065</v>
       </c>
       <c r="N23" t="n">
-        <v>66.42547570141669</v>
+        <v>66.42547570141666</v>
       </c>
       <c r="O23" t="n">
         <v>57.26835895343542</v>
       </c>
       <c r="P23" t="n">
-        <v>34.7631736105098</v>
+        <v>34.76317361050977</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.39866293496722</v>
+        <v>6.398662934967206</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>21.32678528056497</v>
+        <v>21.32678528056496</v>
       </c>
       <c r="L24" t="n">
         <v>47.62662517105478</v>
       </c>
       <c r="M24" t="n">
-        <v>63.49674396958346</v>
+        <v>63.49674396958344</v>
       </c>
       <c r="N24" t="n">
-        <v>71.07175948935102</v>
+        <v>71.071759489351</v>
       </c>
       <c r="O24" t="n">
-        <v>55.92685871985329</v>
+        <v>55.92685871985328</v>
       </c>
       <c r="P24" t="n">
-        <v>36.97725307666559</v>
+        <v>36.97725307666558</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.296824985098247</v>
+        <v>4.296824985098233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>4.924482377316622</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="M25" t="n">
-        <v>67.41193519827878</v>
+        <v>6.525110163847678</v>
       </c>
       <c r="N25" t="n">
-        <v>75.94786280235964</v>
+        <v>66.35415212124489</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5428447094972313</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="Q25" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.467499168241588</v>
+        <v>2.467499168241574</v>
       </c>
       <c r="K26" t="n">
-        <v>24.45480817519277</v>
+        <v>24.45480817519275</v>
       </c>
       <c r="L26" t="n">
         <v>45.43452728890735</v>
@@ -36606,16 +36606,16 @@
         <v>63.51034485950065</v>
       </c>
       <c r="N26" t="n">
-        <v>66.42547570141669</v>
+        <v>66.42547570141666</v>
       </c>
       <c r="O26" t="n">
         <v>57.26835895343542</v>
       </c>
       <c r="P26" t="n">
-        <v>34.7631736105098</v>
+        <v>34.76317361050977</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.39866293496722</v>
+        <v>6.398662934967206</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>21.32678528056497</v>
+        <v>21.32678528056496</v>
       </c>
       <c r="L27" t="n">
         <v>47.62662517105478</v>
       </c>
       <c r="M27" t="n">
-        <v>63.49674396958346</v>
+        <v>63.49674396958344</v>
       </c>
       <c r="N27" t="n">
-        <v>71.07175948935102</v>
+        <v>71.071759489351</v>
       </c>
       <c r="O27" t="n">
-        <v>55.92685871985329</v>
+        <v>55.92685871985328</v>
       </c>
       <c r="P27" t="n">
-        <v>36.97725307666559</v>
+        <v>36.97725307666558</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.296824985098423</v>
+        <v>4.296824985098233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>61.42966974392832</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>4.924482377316622</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="M28" t="n">
-        <v>6.525110163847685</v>
+        <v>72.87926228509254</v>
       </c>
       <c r="N28" t="n">
-        <v>75.94786280235964</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="O28" t="n">
-        <v>75.94786280235964</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="P28" t="n">
-        <v>75.94786280235964</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.54459321251301</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>4.924482377316615</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="M31" t="n">
-        <v>15.82578665070354</v>
+        <v>6.525110163847678</v>
       </c>
       <c r="N31" t="n">
-        <v>9.584400044559352</v>
+        <v>66.35415212124489</v>
       </c>
       <c r="O31" t="n">
-        <v>75.94786280235957</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="P31" t="n">
-        <v>75.94786280235957</v>
+        <v>75.94786280235958</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.94786280235957</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37232,19 +37232,19 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
+        <v>72.87926228509254</v>
+      </c>
+      <c r="M34" t="n">
         <v>75.94786280235957</v>
-      </c>
-      <c r="M34" t="n">
-        <v>6.525110163847664</v>
       </c>
       <c r="N34" t="n">
         <v>75.94786280235957</v>
       </c>
       <c r="O34" t="n">
-        <v>66.35415212124487</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="P34" t="n">
-        <v>75.94786280235957</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>21.32678528056489</v>
+        <v>21.32678528056494</v>
       </c>
       <c r="L36" t="n">
         <v>47.62662517105476</v>
@@ -37466,25 +37466,25 @@
         <v>42.54459321251301</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="L37" t="n">
-        <v>4.9244823773166</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="M37" t="n">
-        <v>75.94786280235952</v>
+        <v>6.525110163847664</v>
       </c>
       <c r="N37" t="n">
-        <v>25.4101866952629</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="O37" t="n">
-        <v>75.94786280235952</v>
+        <v>23.80955890873184</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>75.94786280235952</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>42.54459321251301</v>
       </c>
       <c r="K40" t="n">
-        <v>75.94786280235952</v>
+        <v>13.68231415467528</v>
       </c>
       <c r="L40" t="n">
-        <v>20.20742431852295</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="M40" t="n">
-        <v>75.94786280235952</v>
+        <v>6.525110163847664</v>
       </c>
       <c r="N40" t="n">
         <v>9.584400044559338</v>
@@ -37718,10 +37718,10 @@
         <v>0.54284470949721</v>
       </c>
       <c r="P40" t="n">
-        <v>75.94786280235952</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>75.94786280235954</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.54459321251301</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="L43" t="n">
-        <v>20.2074243185229</v>
+        <v>4.9244823773166</v>
       </c>
       <c r="M43" t="n">
-        <v>75.94786280235951</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="N43" t="n">
         <v>9.584400044559338</v>
       </c>
       <c r="O43" t="n">
-        <v>0.54284470949721</v>
+        <v>58.37037986321658</v>
       </c>
       <c r="P43" t="n">
-        <v>75.94786280235951</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="Q43" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>44.64761804676702</v>
+        <v>2.467499168241545</v>
       </c>
       <c r="K44" t="n">
-        <v>87.67187230626074</v>
+        <v>24.45480817519272</v>
       </c>
       <c r="L44" t="n">
-        <v>123.8608853786925</v>
+        <v>45.43452728890729</v>
       </c>
       <c r="M44" t="n">
-        <v>150.7747793758132</v>
+        <v>63.51034485950059</v>
       </c>
       <c r="N44" t="n">
-        <v>155.1019400003606</v>
+        <v>66.42547570141663</v>
       </c>
       <c r="O44" t="n">
-        <v>141.0030296224485</v>
+        <v>57.26835895343537</v>
       </c>
       <c r="P44" t="n">
-        <v>106.2287777564389</v>
+        <v>34.76317361050974</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.066355390448</v>
+        <v>6.398662934967177</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>18.89360532308051</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>64.26460912288454</v>
+        <v>21.32678528056494</v>
       </c>
       <c r="L45" t="n">
-        <v>105.3618281836313</v>
+        <v>47.62662517105476</v>
       </c>
       <c r="M45" t="n">
-        <v>130.8710026916629</v>
+        <v>63.49674396958341</v>
       </c>
       <c r="N45" t="n">
-        <v>140.2292143614402</v>
+        <v>71.07175948935097</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1924189223225</v>
+        <v>55.92685871985325</v>
       </c>
       <c r="P45" t="n">
-        <v>87.75344272945938</v>
+        <v>36.97725307666555</v>
       </c>
       <c r="Q45" t="n">
-        <v>202.7891365427482</v>
+        <v>4.296824985098219</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.30544777956407</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>100.6994620151186</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="L46" t="n">
-        <v>219.5565574740962</v>
+        <v>62.75201753103595</v>
       </c>
       <c r="M46" t="n">
-        <v>219.5565574740962</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="N46" t="n">
-        <v>219.5565574740962</v>
+        <v>9.584400044559338</v>
       </c>
       <c r="O46" t="n">
-        <v>32.05239425411724</v>
+        <v>0.54284470949721</v>
       </c>
       <c r="P46" t="n">
-        <v>19.62828140614088</v>
+        <v>75.94786280235952</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
